--- a/data/trans_orig/ESTUDIOS-Edad-trans_orig.xlsx
+++ b/data/trans_orig/ESTUDIOS-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFA1B599-FA4F-4D9A-9F34-DC4E0A28F473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8F3BE0F-CAC5-4002-8341-B172FBAC2DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{146E54C3-6858-4064-8238-9818C453A09D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DFB17795-CF53-4957-8600-63A34D25D6CC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="737">
   <si>
     <t>Nivel de estudios en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,2158 +77,2179 @@
     <t>7,21%</t>
   </si>
   <si>
-    <t>5,24%</t>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>72,11%</t>
+  </si>
+  <si>
+    <t>79,62%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>76,3%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>Primarios</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>57,96%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>59,81%</t>
+  </si>
+  <si>
+    <t>56,29%</t>
+  </si>
+  <si>
+    <t>63,5%</t>
+  </si>
+  <si>
+    <t>60,93%</t>
+  </si>
+  <si>
+    <t>63,67%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
   </si>
   <si>
     <t>9,77%</t>
   </si>
   <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>76,24%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>79,88%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>76,3%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>61,88%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>65,3%</t>
-  </si>
-  <si>
-    <t>59,81%</t>
-  </si>
-  <si>
-    <t>56,24%</t>
-  </si>
-  <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>60,93%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>63,55%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
+    <t>14,49%</t>
   </si>
   <si>
     <t>10,59%</t>
   </si>
   <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
   </si>
   <si>
     <t>11,31%</t>
   </si>
   <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>58,83%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>58,26%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
+  </si>
+  <si>
+    <t>57,95%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>56,12%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>55,03%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>54,6%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>55,15%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>62,07%</t>
+  </si>
+  <si>
+    <t>70,98%</t>
+  </si>
+  <si>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>74,27%</t>
+  </si>
+  <si>
+    <t>70,24%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>50,1%</t>
+  </si>
+  <si>
+    <t>53,57%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>48,16%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Nivel de estudios en 2012 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>65,19%</t>
+  </si>
+  <si>
+    <t>61,39%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>64,95%</t>
+  </si>
+  <si>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>60,72%</t>
+  </si>
+  <si>
+    <t>66,07%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>62,0%</t>
+  </si>
+  <si>
+    <t>70,02%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>65,33%</t>
+  </si>
+  <si>
+    <t>62,67%</t>
+  </si>
+  <si>
+    <t>67,93%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>64,18%</t>
+  </si>
+  <si>
+    <t>54,81%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>58,81%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>60,45%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>46,28%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>51,28%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>63,63%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>70,08%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>51,03%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>Nivel de estudios en 2015 (Tasa respuesta: 99,57%)</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>66,31%</t>
+  </si>
+  <si>
+    <t>61,77%</t>
+  </si>
+  <si>
+    <t>69,94%</t>
+  </si>
+  <si>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>66,53%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>61,56%</t>
+  </si>
+  <si>
+    <t>67,35%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
     <t>9,59%</t>
   </si>
   <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>66,37%</t>
+  </si>
+  <si>
+    <t>62,52%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>65,88%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>68,49%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>70,4%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>60,78%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
+  </si>
+  <si>
+    <t>67,51%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>54,42%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>59,08%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>60,14%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>64,38%</t>
+  </si>
+  <si>
+    <t>71,44%</t>
+  </si>
+  <si>
+    <t>68,06%</t>
+  </si>
+  <si>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>66,57%</t>
+  </si>
+  <si>
+    <t>63,87%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>63,1%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>60,05%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>Nivel de estudios en 2023 (Tasa respuesta: 99,69%)</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>78,28%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>70,63%</t>
+  </si>
+  <si>
+    <t>64,62%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>60,96%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>64,2%</t>
+  </si>
+  <si>
+    <t>71,8%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>61,02%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>64,41%</t>
+  </si>
+  <si>
+    <t>70,97%</t>
+  </si>
+  <si>
+    <t>66,64%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
   </si>
   <si>
     <t>17,7%</t>
   </si>
   <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>58,83%</t>
-  </si>
-  <si>
-    <t>54,69%</t>
-  </si>
-  <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>57,68%</t>
-  </si>
-  <si>
-    <t>65,38%</t>
-  </si>
-  <si>
-    <t>60,44%</t>
-  </si>
-  <si>
-    <t>57,81%</t>
-  </si>
-  <si>
-    <t>63,28%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>62,08%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>57,78%</t>
+  </si>
+  <si>
+    <t>65,29%</t>
+  </si>
+  <si>
+    <t>59,6%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>58,27%</t>
+  </si>
+  <si>
+    <t>63,12%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
   </si>
   <si>
     <t>8,77%</t>
   </si>
   <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>56,33%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>55,18%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>55,15%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>62,28%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>57,46%</t>
-  </si>
-  <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>74,27%</t>
-  </si>
-  <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>48,69%</t>
-  </si>
-  <si>
-    <t>49,3%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Nivel de estudios en 2012 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>74,69%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>68,77%</t>
-  </si>
-  <si>
-    <t>60,85%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>63,15%</t>
-  </si>
-  <si>
-    <t>60,13%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>66,17%</t>
-  </si>
-  <si>
-    <t>62,29%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>68,24%</t>
-  </si>
-  <si>
-    <t>65,33%</t>
-  </si>
-  <si>
-    <t>62,79%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>64,24%</t>
-  </si>
-  <si>
-    <t>54,81%</t>
-  </si>
-  <si>
-    <t>50,56%</t>
-  </si>
-  <si>
-    <t>58,89%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>54,36%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>46,28%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>42,08%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>59,03%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>63,98%</t>
-  </si>
-  <si>
-    <t>51,85%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
-  </si>
-  <si>
-    <t>55,47%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>Nivel de estudios en 2015 (Tasa respuesta: 99,57%)</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>66,31%</t>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>51,79%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>54,43%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>61,76%</t>
+  </si>
+  <si>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>64,03%</t>
   </si>
   <si>
     <t>62,12%</t>
   </si>
   <si>
-    <t>69,74%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>58,7%</t>
-  </si>
-  <si>
-    <t>66,68%</t>
-  </si>
-  <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>61,67%</t>
-  </si>
-  <si>
-    <t>67,19%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>66,37%</t>
-  </si>
-  <si>
-    <t>62,9%</t>
-  </si>
-  <si>
-    <t>70,14%</t>
-  </si>
-  <si>
-    <t>65,88%</t>
-  </si>
-  <si>
-    <t>63,33%</t>
-  </si>
-  <si>
-    <t>68,4%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>66,55%</t>
-  </si>
-  <si>
-    <t>73,89%</t>
-  </si>
-  <si>
-    <t>61,12%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>67,51%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>54,42%</t>
-  </si>
-  <si>
-    <t>50,08%</t>
-  </si>
-  <si>
-    <t>59,47%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>59,08%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>60,14%</t>
-  </si>
-  <si>
-    <t>56,25%</t>
-  </si>
-  <si>
-    <t>63,99%</t>
-  </si>
-  <si>
-    <t>71,44%</t>
-  </si>
-  <si>
-    <t>67,57%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>66,57%</t>
-  </si>
-  <si>
-    <t>63,88%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>59,56%</t>
-  </si>
-  <si>
-    <t>56,29%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>58,06%</t>
-  </si>
-  <si>
-    <t>57,61%</t>
-  </si>
-  <si>
-    <t>60,03%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>Nivel de estudios en 2023 (Tasa respuesta: 99,69%)</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>61,16%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>71,59%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>61,1%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>64,15%</t>
-  </si>
-  <si>
-    <t>70,88%</t>
-  </si>
-  <si>
-    <t>66,64%</t>
-  </si>
-  <si>
-    <t>63,93%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
-  </si>
-  <si>
-    <t>75,28%</t>
-  </si>
-  <si>
-    <t>61,93%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>64,5%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>61,82%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>59,6%</t>
-  </si>
-  <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>56,69%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>54,43%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>61,84%</t>
-  </si>
-  <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>62,1%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
+    <t>66,18%</t>
   </si>
   <si>
     <t>59,21%</t>
   </si>
   <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>63,51%</t>
   </si>
   <si>
     <t>61,48%</t>
   </si>
   <si>
-    <t>60,12%</t>
-  </si>
-  <si>
-    <t>63,84%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
   </si>
   <si>
     <t>22,0%</t>
   </si>
   <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
   </si>
   <si>
     <t>19,2%</t>
   </si>
   <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
   </si>
 </sst>
 </file>
@@ -2640,7 +2661,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{806A56CD-DDE2-4E44-A6AB-740DC7322812}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D2783BD-19A5-4A36-8998-57D795196C8B}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3054,10 +3075,10 @@
         <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3072,13 +3093,13 @@
         <v>87649</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>61</v>
@@ -3087,13 +3108,13 @@
         <v>66233</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>142</v>
@@ -3102,13 +3123,13 @@
         <v>153882</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3164,7 +3185,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3176,13 +3197,13 @@
         <v>137893</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>119</v>
@@ -3191,13 +3212,13 @@
         <v>129155</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>255</v>
@@ -3206,13 +3227,13 @@
         <v>267048</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3227,13 +3248,13 @@
         <v>375723</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>411</v>
@@ -3242,13 +3263,13 @@
         <v>427215</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>771</v>
@@ -3257,13 +3278,13 @@
         <v>802938</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>86</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3278,13 +3299,13 @@
         <v>125052</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>128</v>
@@ -3293,13 +3314,13 @@
         <v>133374</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>245</v>
@@ -3308,13 +3329,13 @@
         <v>258426</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3370,7 +3391,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3382,13 +3403,13 @@
         <v>100209</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H16" s="7">
         <v>56</v>
@@ -3397,13 +3418,13 @@
         <v>59614</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>149</v>
@@ -3412,13 +3433,13 @@
         <v>159823</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3433,13 +3454,13 @@
         <v>268113</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H17" s="7">
         <v>254</v>
@@ -3448,13 +3469,13 @@
         <v>262053</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>505</v>
@@ -3463,13 +3484,13 @@
         <v>530166</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3484,13 +3505,13 @@
         <v>150826</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H18" s="7">
         <v>192</v>
@@ -3499,13 +3520,13 @@
         <v>193974</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M18" s="7">
         <v>332</v>
@@ -3514,13 +3535,13 @@
         <v>344800</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3576,7 +3597,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3588,13 +3609,13 @@
         <v>43785</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>127</v>
+        <v>63</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H20" s="7">
         <v>28</v>
@@ -3603,13 +3624,13 @@
         <v>29703</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M20" s="7">
         <v>70</v>
@@ -3618,13 +3639,13 @@
         <v>73488</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3639,13 +3660,13 @@
         <v>129668</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H21" s="7">
         <v>100</v>
@@ -3654,13 +3675,13 @@
         <v>105137</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="M21" s="7">
         <v>232</v>
@@ -3669,13 +3690,13 @@
         <v>234805</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3690,13 +3711,13 @@
         <v>213257</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H22" s="7">
         <v>268</v>
@@ -3705,13 +3726,13 @@
         <v>269146</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M22" s="7">
         <v>486</v>
@@ -3720,13 +3741,13 @@
         <v>482403</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3782,7 +3803,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3794,13 +3815,13 @@
         <v>41194</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H24" s="7">
         <v>27</v>
@@ -3809,13 +3830,13 @@
         <v>26881</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="M24" s="7">
         <v>62</v>
@@ -3824,13 +3845,13 @@
         <v>68075</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3845,13 +3866,13 @@
         <v>88083</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H25" s="7">
         <v>60</v>
@@ -3860,13 +3881,13 @@
         <v>62212</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>168</v>
+        <v>131</v>
       </c>
       <c r="M25" s="7">
         <v>149</v>
@@ -3875,13 +3896,13 @@
         <v>150295</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3896,13 +3917,13 @@
         <v>373189</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H26" s="7">
         <v>574</v>
@@ -3911,13 +3932,13 @@
         <v>587749</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="M26" s="7">
         <v>973</v>
@@ -3926,13 +3947,13 @@
         <v>960938</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>179</v>
+        <v>29</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4000,13 +4021,13 @@
         <v>551408</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H28" s="7">
         <v>452</v>
@@ -4015,28 +4036,28 @@
         <v>476412</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="M28" s="7">
         <v>979</v>
       </c>
       <c r="N28" s="7">
-        <v>1027819</v>
+        <v>1027820</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4051,13 +4072,13 @@
         <v>1693413</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="H29" s="7">
         <v>1554</v>
@@ -4066,28 +4087,28 @@
         <v>1587673</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="M29" s="7">
         <v>3203</v>
       </c>
       <c r="N29" s="7">
-        <v>3281085</v>
+        <v>3281086</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4102,13 +4123,13 @@
         <v>1031723</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H30" s="7">
         <v>1291</v>
@@ -4117,28 +4138,28 @@
         <v>1315113</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="M30" s="7">
         <v>2329</v>
       </c>
       <c r="N30" s="7">
-        <v>2346835</v>
+        <v>2346836</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4180,7 +4201,7 @@
         <v>6511</v>
       </c>
       <c r="N31" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>40</v>
@@ -4194,7 +4215,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -4216,7 +4237,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB19B7EE-FAF9-49AA-BE2E-CEB495FED186}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36632C1-7E98-4C99-A6CB-0E3751C1E2A8}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4233,7 +4254,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4340,13 +4361,13 @@
         <v>16737</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H4" s="7">
         <v>50</v>
@@ -4355,13 +4376,13 @@
         <v>52513</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>132</v>
+        <v>208</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="M4" s="7">
         <v>67</v>
@@ -4370,13 +4391,13 @@
         <v>69250</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4391,13 +4412,13 @@
         <v>381454</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H5" s="7">
         <v>334</v>
@@ -4406,13 +4427,13 @@
         <v>340171</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="M5" s="7">
         <v>708</v>
@@ -4421,13 +4442,13 @@
         <v>721626</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4442,13 +4463,13 @@
         <v>55955</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>132</v>
+        <v>223</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>227</v>
+        <v>177</v>
       </c>
       <c r="H6" s="7">
         <v>37</v>
@@ -4457,13 +4478,13 @@
         <v>37545</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="M6" s="7">
         <v>92</v>
@@ -4472,13 +4493,13 @@
         <v>93500</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>16</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4546,13 +4567,13 @@
         <v>172666</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H8" s="7">
         <v>155</v>
@@ -4561,13 +4582,13 @@
         <v>167931</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="M8" s="7">
         <v>322</v>
@@ -4576,13 +4597,13 @@
         <v>340597</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4597,13 +4618,13 @@
         <v>446667</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H9" s="7">
         <v>351</v>
@@ -4612,13 +4633,13 @@
         <v>370722</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="M9" s="7">
         <v>785</v>
@@ -4627,13 +4648,13 @@
         <v>817389</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4648,13 +4669,13 @@
         <v>65837</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H10" s="7">
         <v>64</v>
@@ -4663,13 +4684,13 @@
         <v>70634</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="M10" s="7">
         <v>128</v>
@@ -4678,13 +4699,13 @@
         <v>136471</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4740,7 +4761,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4752,13 +4773,13 @@
         <v>116918</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H12" s="7">
         <v>104</v>
@@ -4767,13 +4788,13 @@
         <v>112228</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="M12" s="7">
         <v>210</v>
@@ -4782,13 +4803,13 @@
         <v>229146</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4803,13 +4824,13 @@
         <v>449421</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H13" s="7">
         <v>432</v>
@@ -4818,13 +4839,13 @@
         <v>458661</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>272</v>
+        <v>149</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>273</v>
+        <v>246</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="M13" s="7">
         <v>866</v>
@@ -4833,13 +4854,13 @@
         <v>908082</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4854,13 +4875,13 @@
         <v>112808</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="H14" s="7">
         <v>131</v>
@@ -4869,13 +4890,13 @@
         <v>139961</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>100</v>
+        <v>278</v>
       </c>
       <c r="M14" s="7">
         <v>239</v>
@@ -4884,13 +4905,13 @@
         <v>252769</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>33</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4946,7 +4967,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4958,13 +4979,13 @@
         <v>108134</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="H16" s="7">
         <v>71</v>
@@ -4973,13 +4994,13 @@
         <v>87683</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="M16" s="7">
         <v>162</v>
@@ -4988,13 +5009,13 @@
         <v>195817</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5009,13 +5030,13 @@
         <v>370110</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="H17" s="7">
         <v>295</v>
@@ -5024,13 +5045,13 @@
         <v>337726</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="M17" s="7">
         <v>626</v>
@@ -5039,13 +5060,13 @@
         <v>707836</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5060,13 +5081,13 @@
         <v>136373</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H18" s="7">
         <v>173</v>
@@ -5075,13 +5096,13 @@
         <v>190790</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="M18" s="7">
         <v>299</v>
@@ -5090,13 +5111,13 @@
         <v>327163</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5152,7 +5173,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5164,13 +5185,13 @@
         <v>40151</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="H20" s="7">
         <v>14</v>
@@ -5179,13 +5200,13 @@
         <v>16031</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="M20" s="7">
         <v>50</v>
@@ -5194,13 +5215,13 @@
         <v>56182</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5215,13 +5236,13 @@
         <v>197640</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="H21" s="7">
         <v>146</v>
@@ -5230,13 +5251,13 @@
         <v>167448</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>325</v>
+        <v>116</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="M21" s="7">
         <v>324</v>
@@ -5245,13 +5266,13 @@
         <v>365088</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5266,13 +5287,13 @@
         <v>189273</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="H22" s="7">
         <v>246</v>
@@ -5281,13 +5302,13 @@
         <v>264321</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="M22" s="7">
         <v>423</v>
@@ -5296,13 +5317,13 @@
         <v>453595</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5358,7 +5379,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5370,13 +5391,13 @@
         <v>26575</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="H24" s="7">
         <v>18</v>
@@ -5385,13 +5406,13 @@
         <v>22246</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="M24" s="7">
         <v>39</v>
@@ -5400,13 +5421,13 @@
         <v>48821</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5421,13 +5442,13 @@
         <v>118665</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H25" s="7">
         <v>77</v>
@@ -5436,13 +5457,13 @@
         <v>83074</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="M25" s="7">
         <v>182</v>
@@ -5451,13 +5472,13 @@
         <v>201739</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5472,13 +5493,13 @@
         <v>414398</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="H26" s="7">
         <v>596</v>
@@ -5487,13 +5508,13 @@
         <v>634545</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="M26" s="7">
         <v>974</v>
@@ -5502,13 +5523,13 @@
         <v>1048942</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5576,13 +5597,13 @@
         <v>481181</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="H28" s="7">
         <v>412</v>
@@ -5591,10 +5612,10 @@
         <v>458631</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>366</v>
@@ -5606,13 +5627,13 @@
         <v>939813</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>256</v>
+        <v>369</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5627,13 +5648,13 @@
         <v>1963957</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="H29" s="7">
         <v>1635</v>
@@ -5642,13 +5663,13 @@
         <v>1757803</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="M29" s="7">
         <v>3491</v>
@@ -5657,13 +5678,13 @@
         <v>3721760</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5678,13 +5699,13 @@
         <v>974643</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="H30" s="7">
         <v>1247</v>
@@ -5693,13 +5714,13 @@
         <v>1337796</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="M30" s="7">
         <v>2155</v>
@@ -5708,13 +5729,13 @@
         <v>2312440</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5770,7 +5791,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -5792,7 +5813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9144FE3D-1915-45A9-84B1-1615EF891716}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A07B57D-F59C-4F0F-A93C-B9118DE33355}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5809,7 +5830,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5916,13 +5937,13 @@
         <v>41381</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="H4" s="7">
         <v>47</v>
@@ -5931,13 +5952,13 @@
         <v>45351</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="M4" s="7">
         <v>86</v>
@@ -5946,13 +5967,13 @@
         <v>86732</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5967,13 +5988,13 @@
         <v>345420</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H5" s="7">
         <v>329</v>
@@ -5982,13 +6003,13 @@
         <v>322926</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="M5" s="7">
         <v>652</v>
@@ -5997,13 +6018,13 @@
         <v>668346</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6018,13 +6039,13 @@
         <v>27361</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>161</v>
+        <v>408</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>132</v>
+        <v>409</v>
       </c>
       <c r="H6" s="7">
         <v>26</v>
@@ -6033,13 +6054,13 @@
         <v>25482</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>413</v>
       </c>
       <c r="M6" s="7">
         <v>52</v>
@@ -6048,10 +6069,10 @@
         <v>52842</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>415</v>
@@ -6155,10 +6176,10 @@
         <v>422</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6173,13 +6194,13 @@
         <v>388305</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>427</v>
       </c>
       <c r="H9" s="7">
         <v>365</v>
@@ -6188,13 +6209,13 @@
         <v>353761</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>430</v>
       </c>
       <c r="M9" s="7">
         <v>737</v>
@@ -6203,13 +6224,13 @@
         <v>742066</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>432</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6224,13 +6245,13 @@
         <v>65049</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>436</v>
       </c>
       <c r="H10" s="7">
         <v>46</v>
@@ -6239,13 +6260,13 @@
         <v>45102</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>439</v>
       </c>
       <c r="M10" s="7">
         <v>108</v>
@@ -6254,13 +6275,13 @@
         <v>110151</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>67</v>
+        <v>438</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>440</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6316,7 +6337,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -6328,10 +6349,10 @@
         <v>151940</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>442</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>443</v>
@@ -6358,13 +6379,13 @@
         <v>309763</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="P12" s="7" t="s">
-        <v>448</v>
-      </c>
       <c r="Q12" s="7" t="s">
-        <v>449</v>
+        <v>301</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6379,13 +6400,13 @@
         <v>436542</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>450</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>452</v>
       </c>
       <c r="H13" s="7">
         <v>440</v>
@@ -6394,13 +6415,13 @@
         <v>436359</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>453</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>455</v>
       </c>
       <c r="M13" s="7">
         <v>860</v>
@@ -6409,13 +6430,13 @@
         <v>872902</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>456</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6430,13 +6451,13 @@
         <v>79103</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>459</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="H14" s="7">
         <v>67</v>
@@ -6451,7 +6472,7 @@
         <v>461</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>253</v>
+        <v>462</v>
       </c>
       <c r="M14" s="7">
         <v>145</v>
@@ -6460,13 +6481,13 @@
         <v>142397</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6522,7 +6543,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6534,13 +6555,13 @@
         <v>98907</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="H16" s="7">
         <v>95</v>
@@ -6549,13 +6570,13 @@
         <v>103612</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>468</v>
+        <v>67</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M16" s="7">
         <v>181</v>
@@ -6564,13 +6585,13 @@
         <v>202520</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6585,13 +6606,13 @@
         <v>454052</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H17" s="7">
         <v>385</v>
@@ -6600,13 +6621,13 @@
         <v>417481</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M17" s="7">
         <v>794</v>
@@ -6615,13 +6636,13 @@
         <v>871533</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6636,13 +6657,13 @@
         <v>92003</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>289</v>
+        <v>483</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>482</v>
+        <v>36</v>
       </c>
       <c r="H18" s="7">
         <v>119</v>
@@ -6651,13 +6672,13 @@
         <v>124885</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="M18" s="7">
         <v>205</v>
@@ -6666,7 +6687,7 @@
         <v>216887</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>486</v>
+        <v>277</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>487</v>
@@ -6728,7 +6749,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6743,10 +6764,10 @@
         <v>489</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>32</v>
+        <v>490</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H20" s="7">
         <v>37</v>
@@ -6755,10 +6776,10 @@
         <v>44979</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>492</v>
+        <v>413</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>493</v>
@@ -6776,7 +6797,7 @@
         <v>495</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>104</v>
+        <v>363</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6934,7 +6955,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6979,10 +7000,10 @@
         <v>520</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6997,13 +7018,13 @@
         <v>192532</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H25" s="7">
         <v>157</v>
@@ -7012,13 +7033,13 @@
         <v>188074</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="M25" s="7">
         <v>354</v>
@@ -7027,13 +7048,13 @@
         <v>380606</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7048,13 +7069,13 @@
         <v>353902</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H26" s="7">
         <v>471</v>
@@ -7063,13 +7084,13 @@
         <v>554757</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="M26" s="7">
         <v>857</v>
@@ -7078,13 +7099,13 @@
         <v>908658</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7152,13 +7173,13 @@
         <v>546886</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>290</v>
+        <v>543</v>
       </c>
       <c r="H28" s="7">
         <v>526</v>
@@ -7167,13 +7188,13 @@
         <v>549140</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>164</v>
+        <v>545</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>543</v>
+        <v>277</v>
       </c>
       <c r="M28" s="7">
         <v>1027</v>
@@ -7182,13 +7203,13 @@
         <v>1096027</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7203,13 +7224,13 @@
         <v>2076385</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>248</v>
+        <v>551</v>
       </c>
       <c r="H29" s="7">
         <v>1908</v>
@@ -7218,13 +7239,13 @@
         <v>1988300</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>549</v>
+        <v>55</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="M29" s="7">
         <v>3860</v>
@@ -7233,13 +7254,13 @@
         <v>4064685</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7254,13 +7275,13 @@
         <v>754347</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="H30" s="7">
         <v>892</v>
@@ -7269,13 +7290,13 @@
         <v>994660</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>559</v>
+        <v>138</v>
       </c>
       <c r="M30" s="7">
         <v>1654</v>
@@ -7284,7 +7305,7 @@
         <v>1749007</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>560</v>
+        <v>49</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>561</v>
@@ -7346,7 +7367,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -7368,7 +7389,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B2EDD7B-FA48-4A54-8DA1-9555BAE66238}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D713D091-AF1A-47A8-BEAE-361AA8B28801}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7546,10 +7567,10 @@
         <v>573</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>223</v>
+        <v>574</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H5" s="7">
         <v>170</v>
@@ -7558,13 +7579,13 @@
         <v>296879</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="M5" s="7">
         <v>314</v>
@@ -7573,13 +7594,13 @@
         <v>628211</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7594,13 +7615,13 @@
         <v>11049</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H6" s="7">
         <v>7</v>
@@ -7609,13 +7630,13 @@
         <v>13011</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M6" s="7">
         <v>16</v>
@@ -7624,13 +7645,13 @@
         <v>24060</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7698,10 +7719,10 @@
         <v>94387</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>591</v>
+        <v>36</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>592</v>
@@ -7818,10 +7839,10 @@
         <v>611</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>343</v>
+        <v>612</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="M10" s="7">
         <v>47</v>
@@ -7830,13 +7851,13 @@
         <v>47963</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7892,7 +7913,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -7904,13 +7925,13 @@
         <v>151425</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H12" s="7">
         <v>232</v>
@@ -7919,13 +7940,13 @@
         <v>157055</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="M12" s="7">
         <v>373</v>
@@ -7934,13 +7955,13 @@
         <v>308480</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7955,13 +7976,13 @@
         <v>364912</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>539</v>
+        <v>628</v>
       </c>
       <c r="H13" s="7">
         <v>564</v>
@@ -7970,13 +7991,13 @@
         <v>394940</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="M13" s="7">
         <v>918</v>
@@ -7985,13 +8006,13 @@
         <v>759852</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8006,13 +8027,13 @@
         <v>40595</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>612</v>
+        <v>636</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>460</v>
+        <v>637</v>
       </c>
       <c r="H14" s="7">
         <v>49</v>
@@ -8021,13 +8042,13 @@
         <v>31321</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>157</v>
+        <v>639</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="M14" s="7">
         <v>98</v>
@@ -8036,13 +8057,13 @@
         <v>71916</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>130</v>
+        <v>342</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8098,7 +8119,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -8110,13 +8131,13 @@
         <v>165501</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="H16" s="7">
         <v>283</v>
@@ -8125,13 +8146,13 @@
         <v>181613</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>643</v>
+        <v>380</v>
       </c>
       <c r="M16" s="7">
         <v>444</v>
@@ -8140,13 +8161,13 @@
         <v>347114</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8161,13 +8182,13 @@
         <v>497857</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="H17" s="7">
         <v>751</v>
@@ -8176,13 +8197,13 @@
         <v>487455</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>274</v>
+        <v>655</v>
       </c>
       <c r="M17" s="7">
         <v>1196</v>
@@ -8191,13 +8212,13 @@
         <v>985313</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>652</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8212,13 +8233,13 @@
         <v>56846</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>655</v>
+        <v>520</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>105</v>
@@ -8227,13 +8248,13 @@
         <v>77051</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>568</v>
+        <v>660</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="M18" s="7">
         <v>161</v>
@@ -8242,13 +8263,13 @@
         <v>133897</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8304,7 +8325,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -8316,13 +8337,13 @@
         <v>114442</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>469</v>
+        <v>665</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>661</v>
+        <v>541</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="H20" s="7">
         <v>172</v>
@@ -8334,10 +8355,10 @@
         <v>31</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="M20" s="7">
         <v>304</v>
@@ -8346,13 +8367,13 @@
         <v>213062</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>665</v>
+        <v>569</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8367,13 +8388,13 @@
         <v>371032</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="H21" s="7">
         <v>602</v>
@@ -8382,13 +8403,13 @@
         <v>355073</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="M21" s="7">
         <v>1010</v>
@@ -8397,13 +8418,13 @@
         <v>726104</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>678</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>457</v>
+        <v>679</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8418,13 +8439,13 @@
         <v>114683</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>416</v>
+        <v>682</v>
       </c>
       <c r="H22" s="7">
         <v>226</v>
@@ -8433,13 +8454,13 @@
         <v>142076</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>679</v>
+        <v>380</v>
       </c>
       <c r="M22" s="7">
         <v>349</v>
@@ -8448,13 +8469,13 @@
         <v>256759</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>644</v>
+        <v>687</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8510,7 +8531,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -8522,13 +8543,13 @@
         <v>111986</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>466</v>
+        <v>690</v>
       </c>
       <c r="H24" s="7">
         <v>153</v>
@@ -8537,13 +8558,13 @@
         <v>78680</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>685</v>
+        <v>692</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>132</v>
+        <v>693</v>
       </c>
       <c r="M24" s="7">
         <v>321</v>
@@ -8552,13 +8573,13 @@
         <v>190666</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>434</v>
+        <v>153</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>686</v>
+        <v>694</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>687</v>
+        <v>695</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8573,13 +8594,13 @@
         <v>295399</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>688</v>
+        <v>696</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>689</v>
+        <v>697</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>690</v>
+        <v>698</v>
       </c>
       <c r="H25" s="7">
         <v>529</v>
@@ -8588,13 +8609,13 @@
         <v>386422</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>691</v>
+        <v>699</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>45</v>
+        <v>700</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>692</v>
+        <v>701</v>
       </c>
       <c r="M25" s="7">
         <v>956</v>
@@ -8603,13 +8624,13 @@
         <v>681821</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>693</v>
+        <v>702</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>694</v>
+        <v>703</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>695</v>
+        <v>704</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8624,13 +8645,13 @@
         <v>287472</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>696</v>
+        <v>705</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>697</v>
+        <v>706</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>698</v>
+        <v>707</v>
       </c>
       <c r="H26" s="7">
         <v>1019</v>
@@ -8639,13 +8660,13 @@
         <v>555520</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>699</v>
+        <v>708</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>700</v>
+        <v>709</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>701</v>
+        <v>710</v>
       </c>
       <c r="M26" s="7">
         <v>1447</v>
@@ -8654,13 +8675,13 @@
         <v>842991</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>702</v>
+        <v>711</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>703</v>
+        <v>712</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>704</v>
+        <v>713</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8728,13 +8749,13 @@
         <v>673039</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>705</v>
+        <v>714</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>706</v>
+        <v>715</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>707</v>
+        <v>716</v>
       </c>
       <c r="H28" s="7">
         <v>1004</v>
@@ -8743,28 +8764,28 @@
         <v>713887</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>709</v>
+        <v>718</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>710</v>
+        <v>75</v>
       </c>
       <c r="M28" s="7">
         <v>1685</v>
       </c>
       <c r="N28" s="7">
-        <v>1386926</v>
+        <v>1386925</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>711</v>
+        <v>289</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>712</v>
+        <v>719</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8779,13 +8800,13 @@
         <v>2162022</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>714</v>
+        <v>721</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>715</v>
+        <v>722</v>
       </c>
       <c r="H29" s="7">
         <v>2921</v>
@@ -8794,28 +8815,28 @@
         <v>2249521</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>716</v>
+        <v>723</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>717</v>
+        <v>724</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>718</v>
+        <v>725</v>
       </c>
       <c r="M29" s="7">
         <v>4913</v>
       </c>
       <c r="N29" s="7">
-        <v>4411543</v>
+        <v>4411542</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>719</v>
+        <v>726</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>721</v>
+        <v>728</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8830,13 +8851,13 @@
         <v>541634</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>723</v>
+        <v>730</v>
       </c>
       <c r="H30" s="7">
         <v>1427</v>
@@ -8845,28 +8866,28 @@
         <v>835953</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>724</v>
+        <v>731</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>725</v>
+        <v>732</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
       <c r="M30" s="7">
         <v>2118</v>
       </c>
       <c r="N30" s="7">
-        <v>1377587</v>
+        <v>1377586</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>727</v>
+        <v>734</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>728</v>
+        <v>735</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>729</v>
+        <v>736</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8878,7 +8899,7 @@
         <v>3364</v>
       </c>
       <c r="D31" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>40</v>
@@ -8908,7 +8929,7 @@
         <v>8716</v>
       </c>
       <c r="N31" s="7">
-        <v>7176055</v>
+        <v>7176054</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>40</v>
@@ -8922,7 +8943,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/ESTUDIOS-Edad-trans_orig.xlsx
+++ b/data/trans_orig/ESTUDIOS-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8F3BE0F-CAC5-4002-8341-B172FBAC2DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{88EB9B72-30D9-455D-9BFC-E496AC9ADD39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DFB17795-CF53-4957-8600-63A34D25D6CC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A6511502-4407-4160-8FF2-9A6CFFF43BA2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="733">
   <si>
     <t>Nivel de estudios en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,2125 +77,2113 @@
     <t>7,21%</t>
   </si>
   <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
+    <t>5,02%</t>
   </si>
   <si>
     <t>9,82%</t>
   </si>
   <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
   </si>
   <si>
     <t>8,48%</t>
   </si>
   <si>
-    <t>6,86%</t>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>72,03%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>72,41%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>76,3%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>Primarios</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>58,13%</t>
+  </si>
+  <si>
+    <t>65,7%</t>
+  </si>
+  <si>
+    <t>59,81%</t>
+  </si>
+  <si>
+    <t>56,38%</t>
+  </si>
+  <si>
+    <t>64,09%</t>
+  </si>
+  <si>
+    <t>60,93%</t>
+  </si>
+  <si>
+    <t>63,81%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>58,83%</t>
+  </si>
+  <si>
+    <t>54,35%</t>
+  </si>
+  <si>
+    <t>63,17%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>65,62%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
+  </si>
+  <si>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>55,31%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>55,15%</t>
+  </si>
+  <si>
+    <t>49,92%</t>
+  </si>
+  <si>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>61,3%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>74,27%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>50,59%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Nivel de estudios en 2012 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>65,19%</t>
+  </si>
+  <si>
+    <t>61,54%</t>
+  </si>
+  <si>
+    <t>68,91%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>64,82%</t>
+  </si>
+  <si>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>60,42%</t>
+  </si>
+  <si>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
+  </si>
+  <si>
+    <t>61,04%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>65,33%</t>
+  </si>
+  <si>
+    <t>62,59%</t>
+  </si>
+  <si>
+    <t>67,86%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>55,8%</t>
+  </si>
+  <si>
+    <t>64,2%</t>
+  </si>
+  <si>
+    <t>54,81%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>58,67%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>54,54%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>46,28%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>64,01%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>55,22%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>59,42%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>52,04%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>Nivel de estudios en 2016 (Tasa respuesta: 99,57%)</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>66,31%</t>
+  </si>
+  <si>
+    <t>61,77%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
+  </si>
+  <si>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>58,81%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>67,41%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>66,37%</t>
+  </si>
+  <si>
+    <t>62,44%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
+  </si>
+  <si>
+    <t>65,88%</t>
+  </si>
+  <si>
+    <t>63,24%</t>
+  </si>
+  <si>
+    <t>68,43%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>70,4%</t>
+  </si>
+  <si>
+    <t>66,73%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>67,51%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>54,42%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>58,7%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>57,71%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>60,14%</t>
+  </si>
+  <si>
+    <t>55,97%</t>
+  </si>
+  <si>
+    <t>63,71%</t>
+  </si>
+  <si>
+    <t>71,44%</t>
+  </si>
+  <si>
+    <t>67,7%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>66,57%</t>
+  </si>
+  <si>
+    <t>63,6%</t>
+  </si>
+  <si>
+    <t>69,23%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>59,75%</t>
+  </si>
+  <si>
+    <t>56,29%</t>
+  </si>
+  <si>
+    <t>54,69%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>60,02%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>Nivel de estudios en 2023 (Tasa respuesta: 99,69%)</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>78,28%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>70,63%</t>
+  </si>
+  <si>
+    <t>64,62%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>60,96%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>71,8%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>61,02%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>64,41%</t>
+  </si>
+  <si>
+    <t>70,97%</t>
+  </si>
+  <si>
+    <t>66,64%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>62,08%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
   </si>
   <si>
     <t>10,29%</t>
   </si>
   <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>76,24%</t>
-  </si>
-  <si>
-    <t>72,11%</t>
-  </si>
-  <si>
-    <t>79,62%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>76,3%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>61,88%</t>
-  </si>
-  <si>
-    <t>57,96%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>59,81%</t>
-  </si>
-  <si>
-    <t>56,29%</t>
-  </si>
-  <si>
-    <t>63,5%</t>
-  </si>
-  <si>
-    <t>60,93%</t>
-  </si>
-  <si>
-    <t>63,67%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>58,83%</t>
-  </si>
-  <si>
-    <t>54,68%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>58,26%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>60,44%</t>
-  </si>
-  <si>
-    <t>57,95%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>47,25%</t>
-  </si>
-  <si>
-    <t>56,12%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>55,03%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>55,15%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>62,07%</t>
-  </si>
-  <si>
-    <t>70,98%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>74,27%</t>
-  </si>
-  <si>
-    <t>70,24%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>50,1%</t>
-  </si>
-  <si>
-    <t>53,57%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>49,3%</t>
-  </si>
-  <si>
-    <t>48,16%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Nivel de estudios en 2012 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
-  </si>
-  <si>
-    <t>61,39%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>60,85%</t>
-  </si>
-  <si>
-    <t>56,69%</t>
-  </si>
-  <si>
-    <t>64,95%</t>
-  </si>
-  <si>
-    <t>63,15%</t>
-  </si>
-  <si>
-    <t>60,72%</t>
-  </si>
-  <si>
-    <t>66,07%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>66,17%</t>
-  </si>
-  <si>
-    <t>62,0%</t>
-  </si>
-  <si>
-    <t>70,02%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>65,33%</t>
-  </si>
-  <si>
-    <t>62,67%</t>
-  </si>
-  <si>
-    <t>67,93%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>57,78%</t>
+  </si>
+  <si>
+    <t>65,29%</t>
+  </si>
+  <si>
+    <t>59,6%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>58,27%</t>
+  </si>
+  <si>
+    <t>63,12%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>51,79%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>54,43%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>61,76%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
   </si>
   <si>
     <t>18,24%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>64,18%</t>
-  </si>
-  <si>
-    <t>54,81%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>58,81%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>60,45%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>46,28%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>51,28%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>49,5%</t>
-  </si>
-  <si>
-    <t>59,03%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>63,63%</t>
-  </si>
-  <si>
-    <t>51,85%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>55,26%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>70,08%</t>
-  </si>
-  <si>
-    <t>77,68%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>55,52%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>51,03%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>Nivel de estudios en 2015 (Tasa respuesta: 99,57%)</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>66,31%</t>
-  </si>
-  <si>
-    <t>61,77%</t>
-  </si>
-  <si>
-    <t>69,94%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>66,53%</t>
-  </si>
-  <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>61,56%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>66,37%</t>
-  </si>
-  <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>65,88%</t>
-  </si>
-  <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>68,49%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>66,63%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>60,78%</t>
-  </si>
-  <si>
-    <t>68,65%</t>
-  </si>
-  <si>
-    <t>67,51%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>54,42%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>59,08%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>59,46%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>60,14%</t>
-  </si>
-  <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>64,38%</t>
-  </si>
-  <si>
-    <t>71,44%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>66,57%</t>
-  </si>
-  <si>
-    <t>63,87%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>63,1%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>60,05%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>Nivel de estudios en 2023 (Tasa respuesta: 99,69%)</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>78,28%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>64,62%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>60,96%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>64,2%</t>
-  </si>
-  <si>
-    <t>71,8%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>61,02%</t>
-  </si>
-  <si>
-    <t>69,4%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>64,41%</t>
-  </si>
-  <si>
-    <t>70,97%</t>
-  </si>
-  <si>
-    <t>66,64%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>62,08%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>61,82%</t>
-  </si>
-  <si>
-    <t>57,78%</t>
-  </si>
-  <si>
-    <t>65,29%</t>
-  </si>
-  <si>
-    <t>59,6%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>58,27%</t>
-  </si>
-  <si>
-    <t>63,12%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>51,79%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>54,43%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>61,76%</t>
-  </si>
-  <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
   </si>
   <si>
     <t>20,37%</t>
@@ -2661,7 +2649,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D2783BD-19A5-4A36-8998-57D795196C8B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB3CB831-54E8-4291-94C3-579C24929822}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2800,13 +2788,13 @@
         <v>45902</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="M4" s="7">
         <v>82</v>
@@ -2815,19 +2803,19 @@
         <v>81532</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>381</v>
@@ -2836,13 +2824,13 @@
         <v>376684</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>374</v>
@@ -2851,13 +2839,13 @@
         <v>356951</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>755</v>
@@ -2866,19 +2854,19 @@
         <v>733635</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>83</v>
@@ -2887,13 +2875,13 @@
         <v>81750</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>68</v>
@@ -2902,13 +2890,13 @@
         <v>64636</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>151</v>
@@ -2917,13 +2905,13 @@
         <v>146386</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2938,13 +2926,13 @@
         <v>494064</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>489</v>
@@ -2953,13 +2941,13 @@
         <v>467489</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7">
         <v>988</v>
@@ -2968,18 +2956,18 @@
         <v>961553</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -2991,13 +2979,13 @@
         <v>192698</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="H8" s="7">
         <v>175</v>
@@ -3006,13 +2994,13 @@
         <v>185156</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="M8" s="7">
         <v>361</v>
@@ -3021,19 +3009,19 @@
         <v>377854</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="7">
         <v>436</v>
@@ -3042,13 +3030,13 @@
         <v>455142</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H9" s="7">
         <v>355</v>
@@ -3057,13 +3045,13 @@
         <v>374105</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>791</v>
@@ -3072,19 +3060,19 @@
         <v>829246</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="7">
         <v>81</v>
@@ -3093,13 +3081,13 @@
         <v>87649</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="H10" s="7">
         <v>61</v>
@@ -3108,13 +3096,13 @@
         <v>66233</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M10" s="7">
         <v>142</v>
@@ -3123,13 +3111,13 @@
         <v>153882</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3144,13 +3132,13 @@
         <v>735489</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7">
         <v>591</v>
@@ -3159,13 +3147,13 @@
         <v>625494</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" s="7">
         <v>1294</v>
@@ -3174,18 +3162,18 @@
         <v>1360982</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3197,13 +3185,13 @@
         <v>137893</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H12" s="7">
         <v>119</v>
@@ -3212,13 +3200,13 @@
         <v>129155</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M12" s="7">
         <v>255</v>
@@ -3227,19 +3215,19 @@
         <v>267048</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="7">
         <v>360</v>
@@ -3248,13 +3236,13 @@
         <v>375723</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H13" s="7">
         <v>411</v>
@@ -3263,13 +3251,13 @@
         <v>427215</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M13" s="7">
         <v>771</v>
@@ -3278,19 +3266,19 @@
         <v>802938</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7">
         <v>117</v>
@@ -3299,13 +3287,13 @@
         <v>125052</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H14" s="7">
         <v>128</v>
@@ -3314,13 +3302,13 @@
         <v>133374</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M14" s="7">
         <v>245</v>
@@ -3329,13 +3317,13 @@
         <v>258426</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3350,13 +3338,13 @@
         <v>638668</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" s="7">
         <v>658</v>
@@ -3365,13 +3353,13 @@
         <v>689744</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M15" s="7">
         <v>1271</v>
@@ -3380,18 +3368,18 @@
         <v>1328412</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3403,13 +3391,13 @@
         <v>100209</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H16" s="7">
         <v>56</v>
@@ -3418,13 +3406,13 @@
         <v>59614</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M16" s="7">
         <v>149</v>
@@ -3433,19 +3421,19 @@
         <v>159823</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>251</v>
@@ -3454,13 +3442,13 @@
         <v>268113</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H17" s="7">
         <v>254</v>
@@ -3469,13 +3457,13 @@
         <v>262053</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M17" s="7">
         <v>505</v>
@@ -3484,19 +3472,19 @@
         <v>530166</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>140</v>
@@ -3505,13 +3493,13 @@
         <v>150826</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H18" s="7">
         <v>192</v>
@@ -3520,13 +3508,13 @@
         <v>193974</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M18" s="7">
         <v>332</v>
@@ -3535,13 +3523,13 @@
         <v>344800</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3556,13 +3544,13 @@
         <v>519147</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H19" s="7">
         <v>502</v>
@@ -3571,13 +3559,13 @@
         <v>515642</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M19" s="7">
         <v>986</v>
@@ -3586,18 +3574,18 @@
         <v>1034789</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3609,10 +3597,10 @@
         <v>43785</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>125</v>
@@ -3651,7 +3639,7 @@
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="7">
         <v>132</v>
@@ -3702,7 +3690,7 @@
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" s="7">
         <v>218</v>
@@ -3762,13 +3750,13 @@
         <v>386710</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H23" s="7">
         <v>396</v>
@@ -3777,13 +3765,13 @@
         <v>403986</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M23" s="7">
         <v>788</v>
@@ -3792,13 +3780,13 @@
         <v>790696</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3845,19 +3833,19 @@
         <v>68075</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C25" s="7">
         <v>89</v>
@@ -3866,13 +3854,13 @@
         <v>88083</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H25" s="7">
         <v>60</v>
@@ -3881,13 +3869,13 @@
         <v>62212</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M25" s="7">
         <v>149</v>
@@ -3908,7 +3896,7 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" s="7">
         <v>399</v>
@@ -3950,10 +3938,10 @@
         <v>174</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>29</v>
+        <v>175</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3968,13 +3956,13 @@
         <v>502466</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H27" s="7">
         <v>661</v>
@@ -3983,13 +3971,13 @@
         <v>676842</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M27" s="7">
         <v>1184</v>
@@ -3998,13 +3986,13 @@
         <v>1179308</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4021,13 +4009,13 @@
         <v>551408</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H28" s="7">
         <v>452</v>
@@ -4036,13 +4024,13 @@
         <v>476412</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M28" s="7">
         <v>979</v>
@@ -4051,34 +4039,34 @@
         <v>1027820</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C29" s="7">
         <v>1649</v>
       </c>
       <c r="D29" s="7">
-        <v>1693413</v>
+        <v>1693412</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H29" s="7">
         <v>1554</v>
@@ -4087,13 +4075,13 @@
         <v>1587673</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M29" s="7">
         <v>3203</v>
@@ -4102,19 +4090,19 @@
         <v>3281086</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" s="7">
         <v>1038</v>
@@ -4123,13 +4111,13 @@
         <v>1031723</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H30" s="7">
         <v>1291</v>
@@ -4138,13 +4126,13 @@
         <v>1315113</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M30" s="7">
         <v>2329</v>
@@ -4153,13 +4141,13 @@
         <v>2346836</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4171,16 +4159,16 @@
         <v>3214</v>
       </c>
       <c r="D31" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H31" s="7">
         <v>3297</v>
@@ -4189,13 +4177,13 @@
         <v>3379198</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M31" s="7">
         <v>6511</v>
@@ -4204,18 +4192,18 @@
         <v>6655741</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -4237,7 +4225,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36632C1-7E98-4C99-A6CB-0E3751C1E2A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E9977E2-810D-4A8A-A5C9-05DA6B6A2FCD}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4254,7 +4242,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4361,13 +4349,13 @@
         <v>16737</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H4" s="7">
         <v>50</v>
@@ -4376,13 +4364,13 @@
         <v>52513</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M4" s="7">
         <v>67</v>
@@ -4391,19 +4379,19 @@
         <v>69250</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>374</v>
@@ -4412,13 +4400,13 @@
         <v>381454</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H5" s="7">
         <v>334</v>
@@ -4427,13 +4415,13 @@
         <v>340171</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M5" s="7">
         <v>708</v>
@@ -4442,19 +4430,19 @@
         <v>721626</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>55</v>
@@ -4463,13 +4451,13 @@
         <v>55955</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>177</v>
+        <v>225</v>
       </c>
       <c r="H6" s="7">
         <v>37</v>
@@ -4478,13 +4466,13 @@
         <v>37545</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M6" s="7">
         <v>92</v>
@@ -4493,13 +4481,13 @@
         <v>93500</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4514,13 +4502,13 @@
         <v>454146</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>421</v>
@@ -4529,13 +4517,13 @@
         <v>430230</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7">
         <v>867</v>
@@ -4544,18 +4532,18 @@
         <v>884376</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -4567,13 +4555,13 @@
         <v>172666</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H8" s="7">
         <v>155</v>
@@ -4582,13 +4570,13 @@
         <v>167931</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M8" s="7">
         <v>322</v>
@@ -4597,19 +4585,19 @@
         <v>340597</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="7">
         <v>434</v>
@@ -4618,13 +4606,13 @@
         <v>446667</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H9" s="7">
         <v>351</v>
@@ -4633,13 +4621,13 @@
         <v>370722</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M9" s="7">
         <v>785</v>
@@ -4648,19 +4636,19 @@
         <v>817389</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="7">
         <v>64</v>
@@ -4669,13 +4657,13 @@
         <v>65837</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H10" s="7">
         <v>64</v>
@@ -4684,13 +4672,13 @@
         <v>70634</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M10" s="7">
         <v>128</v>
@@ -4699,13 +4687,13 @@
         <v>136471</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4720,13 +4708,13 @@
         <v>685170</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7">
         <v>570</v>
@@ -4735,13 +4723,13 @@
         <v>609287</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" s="7">
         <v>1235</v>
@@ -4750,18 +4738,18 @@
         <v>1294457</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4773,13 +4761,13 @@
         <v>116918</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H12" s="7">
         <v>104</v>
@@ -4788,13 +4776,13 @@
         <v>112228</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>261</v>
+        <v>65</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M12" s="7">
         <v>210</v>
@@ -4803,7 +4791,7 @@
         <v>229146</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>263</v>
+        <v>86</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>264</v>
@@ -4815,7 +4803,7 @@
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="7">
         <v>434</v>
@@ -4842,10 +4830,10 @@
         <v>149</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M13" s="7">
         <v>866</v>
@@ -4854,19 +4842,19 @@
         <v>908082</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7">
         <v>108</v>
@@ -4875,13 +4863,13 @@
         <v>112808</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H14" s="7">
         <v>131</v>
@@ -4890,10 +4878,10 @@
         <v>139961</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>277</v>
+        <v>177</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>278</v>
@@ -4926,13 +4914,13 @@
         <v>679147</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" s="7">
         <v>667</v>
@@ -4941,13 +4929,13 @@
         <v>710850</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M15" s="7">
         <v>1315</v>
@@ -4956,18 +4944,18 @@
         <v>1389997</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4994,7 +4982,7 @@
         <v>87683</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>258</v>
+        <v>160</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>285</v>
@@ -5021,7 +5009,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>331</v>
@@ -5072,7 +5060,7 @@
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>126</v>
@@ -5132,13 +5120,13 @@
         <v>614617</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H19" s="7">
         <v>539</v>
@@ -5147,13 +5135,13 @@
         <v>616199</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M19" s="7">
         <v>1087</v>
@@ -5162,18 +5150,18 @@
         <v>1230816</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5227,7 +5215,7 @@
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="7">
         <v>178</v>
@@ -5254,10 +5242,10 @@
         <v>320</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>116</v>
+        <v>321</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M21" s="7">
         <v>324</v>
@@ -5266,19 +5254,19 @@
         <v>365088</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" s="7">
         <v>177</v>
@@ -5287,13 +5275,13 @@
         <v>189273</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H22" s="7">
         <v>246</v>
@@ -5302,13 +5290,13 @@
         <v>264321</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M22" s="7">
         <v>423</v>
@@ -5317,13 +5305,13 @@
         <v>453595</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5338,13 +5326,13 @@
         <v>427064</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H23" s="7">
         <v>406</v>
@@ -5353,13 +5341,13 @@
         <v>447800</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M23" s="7">
         <v>797</v>
@@ -5368,13 +5356,13 @@
         <v>874864</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5391,13 +5379,13 @@
         <v>26575</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H24" s="7">
         <v>18</v>
@@ -5406,13 +5394,13 @@
         <v>22246</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M24" s="7">
         <v>39</v>
@@ -5421,19 +5409,19 @@
         <v>48821</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C25" s="7">
         <v>105</v>
@@ -5442,13 +5430,13 @@
         <v>118665</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H25" s="7">
         <v>77</v>
@@ -5457,13 +5445,13 @@
         <v>83074</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M25" s="7">
         <v>182</v>
@@ -5472,19 +5460,19 @@
         <v>201739</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" s="7">
         <v>378</v>
@@ -5493,13 +5481,13 @@
         <v>414398</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H26" s="7">
         <v>596</v>
@@ -5508,13 +5496,13 @@
         <v>634545</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M26" s="7">
         <v>974</v>
@@ -5523,13 +5511,13 @@
         <v>1048942</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5544,13 +5532,13 @@
         <v>559637</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H27" s="7">
         <v>691</v>
@@ -5559,13 +5547,13 @@
         <v>739865</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M27" s="7">
         <v>1195</v>
@@ -5574,13 +5562,13 @@
         <v>1299502</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5597,13 +5585,13 @@
         <v>481181</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H28" s="7">
         <v>412</v>
@@ -5612,13 +5600,13 @@
         <v>458631</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M28" s="7">
         <v>850</v>
@@ -5627,19 +5615,19 @@
         <v>939813</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C29" s="7">
         <v>1856</v>
@@ -5648,7 +5636,7 @@
         <v>1963957</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>370</v>
+        <v>83</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>371</v>
@@ -5690,7 +5678,7 @@
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" s="7">
         <v>908</v>
@@ -5729,13 +5717,13 @@
         <v>2312440</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5750,13 +5738,13 @@
         <v>3419782</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H31" s="7">
         <v>3294</v>
@@ -5765,13 +5753,13 @@
         <v>3554230</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M31" s="7">
         <v>6496</v>
@@ -5780,18 +5768,18 @@
         <v>6974012</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -5813,7 +5801,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A07B57D-F59C-4F0F-A93C-B9118DE33355}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E27E7E40-B5D8-44AB-BCA0-C09046833ABA}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5830,7 +5818,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5937,13 +5925,13 @@
         <v>41381</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>390</v>
-      </c>
       <c r="G4" s="7" t="s">
-        <v>391</v>
+        <v>368</v>
       </c>
       <c r="H4" s="7">
         <v>47</v>
@@ -5952,13 +5940,13 @@
         <v>45351</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>394</v>
       </c>
       <c r="M4" s="7">
         <v>86</v>
@@ -5967,19 +5955,19 @@
         <v>86732</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>323</v>
@@ -5988,13 +5976,13 @@
         <v>345420</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>400</v>
       </c>
       <c r="H5" s="7">
         <v>329</v>
@@ -6003,13 +5991,13 @@
         <v>322926</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>403</v>
       </c>
       <c r="M5" s="7">
         <v>652</v>
@@ -6018,19 +6006,19 @@
         <v>668346</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>26</v>
@@ -6039,13 +6027,13 @@
         <v>27361</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>409</v>
       </c>
       <c r="H6" s="7">
         <v>26</v>
@@ -6054,13 +6042,13 @@
         <v>25482</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>412</v>
       </c>
       <c r="M6" s="7">
         <v>52</v>
@@ -6069,13 +6057,13 @@
         <v>52842</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6090,13 +6078,13 @@
         <v>414161</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>402</v>
@@ -6105,13 +6093,13 @@
         <v>393759</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7">
         <v>790</v>
@@ -6120,18 +6108,18 @@
         <v>807920</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -6143,13 +6131,13 @@
         <v>132223</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>417</v>
+        <v>91</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>418</v>
+        <v>305</v>
       </c>
       <c r="H8" s="7">
         <v>167</v>
@@ -6158,13 +6146,13 @@
         <v>163702</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="M8" s="7">
         <v>295</v>
@@ -6173,19 +6161,19 @@
         <v>295925</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>98</v>
+        <v>419</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="7">
         <v>372</v>
@@ -6194,13 +6182,13 @@
         <v>388305</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="H9" s="7">
         <v>365</v>
@@ -6209,13 +6197,13 @@
         <v>353761</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="M9" s="7">
         <v>737</v>
@@ -6224,19 +6212,19 @@
         <v>742066</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="7">
         <v>62</v>
@@ -6248,10 +6236,10 @@
         <v>153</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="H10" s="7">
         <v>46</v>
@@ -6260,13 +6248,13 @@
         <v>45102</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="M10" s="7">
         <v>108</v>
@@ -6275,13 +6263,13 @@
         <v>110151</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6296,13 +6284,13 @@
         <v>585577</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7">
         <v>578</v>
@@ -6311,13 +6299,13 @@
         <v>562565</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" s="7">
         <v>1140</v>
@@ -6326,18 +6314,18 @@
         <v>1148142</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -6349,13 +6337,13 @@
         <v>151940</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="H12" s="7">
         <v>154</v>
@@ -6364,13 +6352,13 @@
         <v>157822</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="M12" s="7">
         <v>293</v>
@@ -6379,19 +6367,19 @@
         <v>309763</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>98</v>
+        <v>444</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>301</v>
+        <v>446</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="7">
         <v>420</v>
@@ -6400,13 +6388,13 @@
         <v>436542</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>450</v>
       </c>
       <c r="H13" s="7">
         <v>440</v>
@@ -6415,13 +6403,13 @@
         <v>436359</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>452</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>453</v>
       </c>
       <c r="M13" s="7">
         <v>860</v>
@@ -6430,19 +6418,19 @@
         <v>872902</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7">
         <v>78</v>
@@ -6451,13 +6439,13 @@
         <v>79103</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>458</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>459</v>
       </c>
       <c r="H14" s="7">
         <v>67</v>
@@ -6466,13 +6454,13 @@
         <v>63294</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>461</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>462</v>
       </c>
       <c r="M14" s="7">
         <v>145</v>
@@ -6481,13 +6469,13 @@
         <v>142397</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>464</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6502,13 +6490,13 @@
         <v>667586</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" s="7">
         <v>661</v>
@@ -6517,13 +6505,13 @@
         <v>657475</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M15" s="7">
         <v>1298</v>
@@ -6532,18 +6520,18 @@
         <v>1325062</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6555,13 +6543,13 @@
         <v>98907</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>467</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>468</v>
       </c>
       <c r="H16" s="7">
         <v>95</v>
@@ -6570,10 +6558,10 @@
         <v>103612</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>469</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>470</v>
@@ -6591,13 +6579,13 @@
         <v>472</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>473</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>409</v>
@@ -6606,13 +6594,13 @@
         <v>454052</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>475</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>476</v>
       </c>
       <c r="H17" s="7">
         <v>385</v>
@@ -6621,13 +6609,13 @@
         <v>417481</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>477</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>478</v>
       </c>
       <c r="M17" s="7">
         <v>794</v>
@@ -6636,19 +6624,19 @@
         <v>871533</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>480</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>86</v>
@@ -6657,13 +6645,13 @@
         <v>92003</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>483</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="H18" s="7">
         <v>119</v>
@@ -6672,13 +6660,13 @@
         <v>124885</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>485</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>486</v>
       </c>
       <c r="M18" s="7">
         <v>205</v>
@@ -6687,7 +6675,7 @@
         <v>216887</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>277</v>
+        <v>486</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>487</v>
@@ -6708,13 +6696,13 @@
         <v>644962</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H19" s="7">
         <v>599</v>
@@ -6723,13 +6711,13 @@
         <v>645978</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M19" s="7">
         <v>1180</v>
@@ -6738,18 +6726,18 @@
         <v>1290940</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6779,10 +6767,10 @@
         <v>492</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>413</v>
+        <v>493</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M20" s="7">
         <v>105</v>
@@ -6791,19 +6779,19 @@
         <v>125384</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>363</v>
+        <v>497</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="7">
         <v>231</v>
@@ -6812,13 +6800,13 @@
         <v>259533</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="H21" s="7">
         <v>232</v>
@@ -6827,13 +6815,13 @@
         <v>269699</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="M21" s="7">
         <v>463</v>
@@ -6842,19 +6830,19 @@
         <v>529233</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" s="7">
         <v>124</v>
@@ -6863,13 +6851,13 @@
         <v>136930</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="H22" s="7">
         <v>163</v>
@@ -6878,13 +6866,13 @@
         <v>181141</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="M22" s="7">
         <v>287</v>
@@ -6893,13 +6881,13 @@
         <v>318071</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6914,13 +6902,13 @@
         <v>476869</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H23" s="7">
         <v>432</v>
@@ -6929,13 +6917,13 @@
         <v>495819</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M23" s="7">
         <v>855</v>
@@ -6944,13 +6932,13 @@
         <v>972688</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6967,13 +6955,13 @@
         <v>42029</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="H24" s="7">
         <v>26</v>
@@ -6982,13 +6970,13 @@
         <v>33674</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>518</v>
+        <v>155</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="M24" s="7">
         <v>67</v>
@@ -6997,19 +6985,19 @@
         <v>75703</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C25" s="7">
         <v>197</v>
@@ -7018,13 +7006,13 @@
         <v>192532</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H25" s="7">
         <v>157</v>
@@ -7033,13 +7021,13 @@
         <v>188074</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>528</v>
+        <v>46</v>
       </c>
       <c r="M25" s="7">
         <v>354</v>
@@ -7060,7 +7048,7 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" s="7">
         <v>386</v>
@@ -7120,13 +7108,13 @@
         <v>588463</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H27" s="7">
         <v>654</v>
@@ -7135,13 +7123,13 @@
         <v>776505</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M27" s="7">
         <v>1278</v>
@@ -7150,13 +7138,13 @@
         <v>1364968</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7194,7 +7182,7 @@
         <v>545</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>277</v>
+        <v>546</v>
       </c>
       <c r="M28" s="7">
         <v>1027</v>
@@ -7203,19 +7191,19 @@
         <v>1096027</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>548</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C29" s="7">
         <v>1952</v>
@@ -7230,7 +7218,7 @@
         <v>550</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>551</v>
+        <v>78</v>
       </c>
       <c r="H29" s="7">
         <v>1908</v>
@@ -7239,7 +7227,7 @@
         <v>1988300</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>55</v>
+        <v>551</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>552</v>
@@ -7254,7 +7242,7 @@
         <v>4064685</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>554</v>
@@ -7266,7 +7254,7 @@
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" s="7">
         <v>762</v>
@@ -7296,7 +7284,7 @@
         <v>560</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>138</v>
+        <v>561</v>
       </c>
       <c r="M30" s="7">
         <v>1654</v>
@@ -7305,13 +7293,13 @@
         <v>1749007</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>49</v>
+        <v>562</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7326,13 +7314,13 @@
         <v>3377618</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H31" s="7">
         <v>3326</v>
@@ -7341,13 +7329,13 @@
         <v>3532100</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M31" s="7">
         <v>6541</v>
@@ -7356,18 +7344,18 @@
         <v>6909718</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -7389,7 +7377,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D713D091-AF1A-47A8-BEAE-361AA8B28801}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1293E709-1F39-411E-80E7-658576F3C424}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7406,7 +7394,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7513,13 +7501,13 @@
         <v>35298</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>565</v>
+        <v>152</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H4" s="7">
         <v>30</v>
@@ -7528,13 +7516,13 @@
         <v>45067</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="M4" s="7">
         <v>49</v>
@@ -7543,19 +7531,19 @@
         <v>80364</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>144</v>
@@ -7564,13 +7552,13 @@
         <v>331332</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H5" s="7">
         <v>170</v>
@@ -7579,13 +7567,13 @@
         <v>296879</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="M5" s="7">
         <v>314</v>
@@ -7594,19 +7582,19 @@
         <v>628211</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>9</v>
@@ -7615,13 +7603,13 @@
         <v>11049</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H6" s="7">
         <v>7</v>
@@ -7630,13 +7618,13 @@
         <v>13011</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M6" s="7">
         <v>16</v>
@@ -7645,13 +7633,13 @@
         <v>24060</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7666,13 +7654,13 @@
         <v>377679</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>207</v>
@@ -7681,13 +7669,13 @@
         <v>354957</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7">
         <v>379</v>
@@ -7696,18 +7684,18 @@
         <v>732636</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -7719,13 +7707,13 @@
         <v>94387</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>36</v>
+        <v>593</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="H8" s="7">
         <v>134</v>
@@ -7734,13 +7722,13 @@
         <v>152852</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="M8" s="7">
         <v>194</v>
@@ -7749,19 +7737,19 @@
         <v>247239</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="7">
         <v>214</v>
@@ -7770,13 +7758,13 @@
         <v>301489</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="H9" s="7">
         <v>305</v>
@@ -7785,13 +7773,13 @@
         <v>328751</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="M9" s="7">
         <v>519</v>
@@ -7800,19 +7788,19 @@
         <v>630240</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>606</v>
+        <v>292</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="7">
         <v>26</v>
@@ -7821,13 +7809,13 @@
         <v>30989</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>610</v>
+        <v>166</v>
       </c>
       <c r="H10" s="7">
         <v>21</v>
@@ -7842,7 +7830,7 @@
         <v>612</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>613</v>
+        <v>207</v>
       </c>
       <c r="M10" s="7">
         <v>47</v>
@@ -7851,13 +7839,13 @@
         <v>47963</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>614</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>615</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7872,13 +7860,13 @@
         <v>426864</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7">
         <v>460</v>
@@ -7887,13 +7875,13 @@
         <v>498577</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" s="7">
         <v>760</v>
@@ -7902,18 +7890,18 @@
         <v>925442</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -7925,13 +7913,13 @@
         <v>151425</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>617</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>618</v>
-      </c>
       <c r="G12" s="7" t="s">
-        <v>619</v>
+        <v>137</v>
       </c>
       <c r="H12" s="7">
         <v>232</v>
@@ -7940,13 +7928,13 @@
         <v>157055</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>620</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>621</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>622</v>
       </c>
       <c r="M12" s="7">
         <v>373</v>
@@ -7955,19 +7943,19 @@
         <v>308480</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>625</v>
+        <v>514</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="7">
         <v>354</v>
@@ -7976,13 +7964,13 @@
         <v>364912</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>628</v>
+        <v>354</v>
       </c>
       <c r="H13" s="7">
         <v>564</v>
@@ -7991,13 +7979,13 @@
         <v>394940</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="M13" s="7">
         <v>918</v>
@@ -8006,19 +7994,19 @@
         <v>759852</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7">
         <v>49</v>
@@ -8027,13 +8015,13 @@
         <v>40595</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>635</v>
+        <v>389</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="H14" s="7">
         <v>49</v>
@@ -8042,13 +8030,13 @@
         <v>31321</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="M14" s="7">
         <v>98</v>
@@ -8057,13 +8045,13 @@
         <v>71916</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>641</v>
+        <v>227</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>342</v>
+        <v>636</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8078,13 +8066,13 @@
         <v>556932</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" s="7">
         <v>845</v>
@@ -8093,13 +8081,13 @@
         <v>583316</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M15" s="7">
         <v>1389</v>
@@ -8108,18 +8096,18 @@
         <v>1140249</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -8131,13 +8119,13 @@
         <v>165501</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="H16" s="7">
         <v>283</v>
@@ -8146,13 +8134,13 @@
         <v>181613</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>380</v>
+        <v>643</v>
       </c>
       <c r="M16" s="7">
         <v>444</v>
@@ -8161,19 +8149,19 @@
         <v>347114</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>445</v>
@@ -8182,13 +8170,13 @@
         <v>497857</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="H17" s="7">
         <v>751</v>
@@ -8197,13 +8185,13 @@
         <v>487455</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="M17" s="7">
         <v>1196</v>
@@ -8212,19 +8200,19 @@
         <v>985313</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>56</v>
@@ -8233,13 +8221,13 @@
         <v>56846</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>655</v>
       </c>
       <c r="H18" s="7">
         <v>105</v>
@@ -8248,13 +8236,13 @@
         <v>77051</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>659</v>
+        <v>434</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="M18" s="7">
         <v>161</v>
@@ -8263,13 +8251,13 @@
         <v>133897</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8284,13 +8272,13 @@
         <v>720205</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H19" s="7">
         <v>1139</v>
@@ -8299,13 +8287,13 @@
         <v>746119</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M19" s="7">
         <v>1801</v>
@@ -8314,18 +8302,18 @@
         <v>1466324</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -8337,13 +8325,13 @@
         <v>114442</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>541</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="H20" s="7">
         <v>172</v>
@@ -8352,13 +8340,13 @@
         <v>98620</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="M20" s="7">
         <v>304</v>
@@ -8367,19 +8355,19 @@
         <v>213062</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="7">
         <v>408</v>
@@ -8388,13 +8376,13 @@
         <v>371032</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="H21" s="7">
         <v>602</v>
@@ -8403,13 +8391,13 @@
         <v>355073</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="M21" s="7">
         <v>1010</v>
@@ -8418,19 +8406,19 @@
         <v>726104</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" s="7">
         <v>123</v>
@@ -8439,13 +8427,13 @@
         <v>114683</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="H22" s="7">
         <v>226</v>
@@ -8454,13 +8442,13 @@
         <v>142076</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>380</v>
+        <v>643</v>
       </c>
       <c r="M22" s="7">
         <v>349</v>
@@ -8469,13 +8457,13 @@
         <v>256759</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8490,13 +8478,13 @@
         <v>600157</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H23" s="7">
         <v>1000</v>
@@ -8505,13 +8493,13 @@
         <v>595769</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M23" s="7">
         <v>1663</v>
@@ -8520,13 +8508,13 @@
         <v>1195925</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8543,13 +8531,13 @@
         <v>111986</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="H24" s="7">
         <v>153</v>
@@ -8558,13 +8546,13 @@
         <v>78680</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="M24" s="7">
         <v>321</v>
@@ -8576,16 +8564,16 @@
         <v>153</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C25" s="7">
         <v>427</v>
@@ -8594,13 +8582,13 @@
         <v>295399</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="H25" s="7">
         <v>529</v>
@@ -8609,13 +8597,13 @@
         <v>386422</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="M25" s="7">
         <v>956</v>
@@ -8624,19 +8612,19 @@
         <v>681821</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" s="7">
         <v>428</v>
@@ -8645,13 +8633,13 @@
         <v>287472</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="H26" s="7">
         <v>1019</v>
@@ -8660,13 +8648,13 @@
         <v>555520</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="M26" s="7">
         <v>1447</v>
@@ -8675,13 +8663,13 @@
         <v>842991</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>711</v>
+        <v>328</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8696,13 +8684,13 @@
         <v>694857</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H27" s="7">
         <v>1701</v>
@@ -8711,13 +8699,13 @@
         <v>1020622</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M27" s="7">
         <v>2724</v>
@@ -8726,13 +8714,13 @@
         <v>1715479</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8749,13 +8737,13 @@
         <v>673039</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="H28" s="7">
         <v>1004</v>
@@ -8764,13 +8752,13 @@
         <v>713887</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M28" s="7">
         <v>1685</v>
@@ -8779,19 +8767,19 @@
         <v>1386925</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>289</v>
+        <v>714</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C29" s="7">
         <v>1992</v>
@@ -8800,13 +8788,13 @@
         <v>2162022</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="H29" s="7">
         <v>2921</v>
@@ -8815,13 +8803,13 @@
         <v>2249521</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="M29" s="7">
         <v>4913</v>
@@ -8830,19 +8818,19 @@
         <v>4411542</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" s="7">
         <v>691</v>
@@ -8851,13 +8839,13 @@
         <v>541634</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="H30" s="7">
         <v>1427</v>
@@ -8866,13 +8854,13 @@
         <v>835953</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="M30" s="7">
         <v>2118</v>
@@ -8881,13 +8869,13 @@
         <v>1377586</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8902,13 +8890,13 @@
         <v>3376694</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H31" s="7">
         <v>5352</v>
@@ -8917,13 +8905,13 @@
         <v>3799360</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M31" s="7">
         <v>8716</v>
@@ -8932,18 +8920,18 @@
         <v>7176054</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/ESTUDIOS-Edad-trans_orig.xlsx
+++ b/data/trans_orig/ESTUDIOS-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC339A48-E347-41F6-8C7C-3BF1716C0179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9707CF5A-9433-4911-BA7D-B9690521096B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1EF2544E-400B-42C3-A5C4-BE4F21AC694A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{17282D54-D173-4455-BD83-62CD7EE62D2D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="820">
   <si>
     <t>Nivel de estudios en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -164,7 +164,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>26,2%</t>
@@ -248,7 +248,7 @@
     <t>13,1%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>21,59%</t>
@@ -332,7 +332,7 @@
     <t>21,81%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>19,3%</t>
@@ -416,7 +416,7 @@
     <t>36,33%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>11,32%</t>
@@ -500,1735 +500,2005 @@
     <t>64,4%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>63,8%</t>
+  </si>
+  <si>
+    <t>74,77%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>78,35%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>72,93%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>50,5%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Nivel de estudios en 2012 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>74,69%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>65,19%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>68,77%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>60,13%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>62,29%</t>
+  </si>
+  <si>
+    <t>69,9%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>60,79%</t>
+  </si>
+  <si>
+    <t>68,24%</t>
+  </si>
+  <si>
+    <t>65,33%</t>
+  </si>
+  <si>
+    <t>62,79%</t>
+  </si>
+  <si>
+    <t>68,22%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>55,61%</t>
+  </si>
+  <si>
+    <t>64,24%</t>
+  </si>
+  <si>
+    <t>54,81%</t>
+  </si>
+  <si>
+    <t>50,56%</t>
+  </si>
+  <si>
+    <t>58,89%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>46,28%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>45,13%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>63,98%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>55,47%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>65,79%</t>
+  </si>
+  <si>
+    <t>59,92%</t>
+  </si>
+  <si>
+    <t>71,17%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>75,45%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>73,53%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>78,7%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>54,63%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>Nivel de estudios en 2016 (Tasa respuesta: 99,57%)</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
   </si>
   <si>
     <t>4,5%</t>
   </si>
   <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>66,31%</t>
+  </si>
+  <si>
+    <t>62,12%</t>
+  </si>
+  <si>
+    <t>69,74%</t>
+  </si>
+  <si>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>58,7%</t>
+  </si>
+  <si>
+    <t>66,68%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>67,19%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>66,37%</t>
+  </si>
+  <si>
+    <t>62,9%</t>
+  </si>
+  <si>
+    <t>70,14%</t>
+  </si>
+  <si>
+    <t>65,88%</t>
+  </si>
+  <si>
+    <t>63,33%</t>
+  </si>
+  <si>
+    <t>68,4%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>70,4%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>67,51%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>54,42%</t>
+  </si>
+  <si>
+    <t>50,08%</t>
+  </si>
+  <si>
+    <t>59,47%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>59,08%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>45,69%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>62,98%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>57,31%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>61,33%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
+  </si>
+  <si>
+    <t>66,61%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
   </si>
   <si>
     <t>14,37%</t>
   </si>
   <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>74,27%</t>
-  </si>
-  <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>59,56%</t>
+  </si>
+  <si>
+    <t>56,29%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>57,61%</t>
+  </si>
+  <si>
+    <t>60,03%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>Nivel de estudios en 2023 (Tasa respuesta: 99,69%)</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>76,76%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>70,19%</t>
+  </si>
+  <si>
+    <t>64,09%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>62,5%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>65,74%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>69,51%</t>
+  </si>
+  <si>
+    <t>67,48%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>75,59%</t>
+  </si>
+  <si>
+    <t>64,78%</t>
   </si>
   <si>
     <t>89,02%</t>
   </si>
   <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>48,69%</t>
-  </si>
-  <si>
-    <t>49,3%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Nivel de estudios en 2012 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>74,69%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>68,77%</t>
-  </si>
-  <si>
-    <t>60,85%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>63,15%</t>
-  </si>
-  <si>
-    <t>60,13%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>66,17%</t>
-  </si>
-  <si>
-    <t>62,29%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>68,24%</t>
-  </si>
-  <si>
-    <t>65,33%</t>
-  </si>
-  <si>
-    <t>62,79%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>64,24%</t>
-  </si>
-  <si>
-    <t>54,81%</t>
-  </si>
-  <si>
-    <t>50,56%</t>
-  </si>
-  <si>
-    <t>58,89%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>54,36%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>46,28%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>42,08%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>59,03%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>63,98%</t>
-  </si>
-  <si>
-    <t>51,85%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
-  </si>
-  <si>
-    <t>55,47%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>Nivel de estudios en 2016 (Tasa respuesta: 99,57%)</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>66,31%</t>
-  </si>
-  <si>
-    <t>62,12%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>58,7%</t>
-  </si>
-  <si>
-    <t>66,68%</t>
-  </si>
-  <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>61,67%</t>
-  </si>
-  <si>
-    <t>67,19%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>66,37%</t>
-  </si>
-  <si>
-    <t>62,9%</t>
-  </si>
-  <si>
-    <t>70,14%</t>
-  </si>
-  <si>
-    <t>65,88%</t>
-  </si>
-  <si>
-    <t>63,33%</t>
-  </si>
-  <si>
-    <t>68,4%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>66,55%</t>
-  </si>
-  <si>
-    <t>73,89%</t>
-  </si>
-  <si>
-    <t>61,12%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>67,51%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>54,42%</t>
-  </si>
-  <si>
-    <t>50,08%</t>
-  </si>
-  <si>
-    <t>59,47%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>59,08%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>60,14%</t>
-  </si>
-  <si>
-    <t>56,25%</t>
-  </si>
-  <si>
-    <t>63,99%</t>
-  </si>
-  <si>
-    <t>71,44%</t>
-  </si>
-  <si>
-    <t>67,57%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>66,57%</t>
-  </si>
-  <si>
-    <t>63,88%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>59,56%</t>
-  </si>
-  <si>
-    <t>56,29%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>58,06%</t>
-  </si>
-  <si>
-    <t>57,61%</t>
-  </si>
-  <si>
-    <t>60,03%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>Nivel de estudios en 2023 (Tasa respuesta: 99,69%)</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>63,48%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>71,65%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>61,75%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>65,32%</t>
+  </si>
+  <si>
+    <t>59,97%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>63,05%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>63,57%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>54,0%</t>
+  </si>
+  <si>
+    <t>60,72%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>56,82%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>65,71%</t>
+  </si>
+  <si>
+    <t>62,65%</t>
+  </si>
+  <si>
+    <t>68,51%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>66,35%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>58,23%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
   </si>
   <si>
     <t>61,16%</t>
   </si>
   <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>71,59%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>61,1%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>64,15%</t>
-  </si>
-  <si>
-    <t>70,88%</t>
-  </si>
-  <si>
-    <t>66,64%</t>
-  </si>
-  <si>
-    <t>63,93%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
-  </si>
-  <si>
-    <t>75,28%</t>
-  </si>
-  <si>
-    <t>61,93%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>64,5%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>61,82%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>59,6%</t>
-  </si>
-  <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>56,69%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>54,43%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>61,84%</t>
-  </si>
-  <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>62,1%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
-  </si>
-  <si>
-    <t>59,21%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
-  </si>
-  <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>60,12%</t>
-  </si>
-  <si>
-    <t>63,84%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
   </si>
 </sst>
 </file>
@@ -2640,8 +2910,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9667B5DB-724F-42E4-96C6-860EBA96BFB9}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D25E01-5E38-4161-9E41-26775B42F82E}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3788,10 +4058,10 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D24" s="7">
-        <v>41194</v>
+        <v>28141</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>154</v>
@@ -3803,10 +4073,10 @@
         <v>156</v>
       </c>
       <c r="H24" s="7">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="I24" s="7">
-        <v>26881</v>
+        <v>17623</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>157</v>
@@ -3818,10 +4088,10 @@
         <v>159</v>
       </c>
       <c r="M24" s="7">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="N24" s="7">
-        <v>68075</v>
+        <v>45765</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>160</v>
@@ -3839,49 +4109,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="D25" s="7">
-        <v>88083</v>
+        <v>61186</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>163</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="H25" s="7">
+        <v>44</v>
+      </c>
+      <c r="I25" s="7">
+        <v>42762</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="H25" s="7">
-        <v>60</v>
-      </c>
-      <c r="I25" s="7">
-        <v>62212</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>107</v>
+      </c>
+      <c r="N25" s="7">
+        <v>103948</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="M25" s="7">
-        <v>149</v>
-      </c>
-      <c r="N25" s="7">
-        <v>150295</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3890,49 +4160,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>399</v>
+        <v>217</v>
       </c>
       <c r="D26" s="7">
-        <v>373189</v>
+        <v>203256</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="H26" s="7">
+        <v>308</v>
+      </c>
+      <c r="I26" s="7">
+        <v>282548</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="H26" s="7">
-        <v>574</v>
-      </c>
-      <c r="I26" s="7">
-        <v>587749</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>525</v>
+      </c>
+      <c r="N26" s="7">
+        <v>485805</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="M26" s="7">
-        <v>973</v>
-      </c>
-      <c r="N26" s="7">
-        <v>960938</v>
-      </c>
-      <c r="O26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3941,10 +4211,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D27" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -3956,10 +4226,10 @@
         <v>40</v>
       </c>
       <c r="H27" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I27" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>40</v>
@@ -3971,10 +4241,10 @@
         <v>40</v>
       </c>
       <c r="M27" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N27" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -3988,16 +4258,16 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>180</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>527</v>
+        <v>12</v>
       </c>
       <c r="D28" s="7">
-        <v>551408</v>
+        <v>13053</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>181</v>
@@ -4009,10 +4279,10 @@
         <v>183</v>
       </c>
       <c r="H28" s="7">
-        <v>452</v>
+        <v>8</v>
       </c>
       <c r="I28" s="7">
-        <v>476412</v>
+        <v>9257</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>184</v>
@@ -4024,19 +4294,19 @@
         <v>186</v>
       </c>
       <c r="M28" s="7">
-        <v>979</v>
+        <v>20</v>
       </c>
       <c r="N28" s="7">
-        <v>1027819</v>
+        <v>22310</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>104</v>
+        <v>187</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4045,49 +4315,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>1649</v>
+        <v>26</v>
       </c>
       <c r="D29" s="7">
-        <v>1693413</v>
+        <v>26897</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H29" s="7">
-        <v>1554</v>
+        <v>16</v>
       </c>
       <c r="I29" s="7">
-        <v>1587673</v>
+        <v>19449</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M29" s="7">
-        <v>3203</v>
+        <v>42</v>
       </c>
       <c r="N29" s="7">
-        <v>3281085</v>
+        <v>46347</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4096,49 +4366,49 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>1038</v>
+        <v>182</v>
       </c>
       <c r="D30" s="7">
-        <v>1031723</v>
+        <v>169933</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H30" s="7">
-        <v>1291</v>
+        <v>266</v>
       </c>
       <c r="I30" s="7">
-        <v>1315113</v>
+        <v>305201</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M30" s="7">
-        <v>2329</v>
+        <v>448</v>
       </c>
       <c r="N30" s="7">
-        <v>2346835</v>
+        <v>475134</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4147,63 +4417,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>220</v>
+      </c>
+      <c r="D31" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="7">
+        <v>290</v>
+      </c>
+      <c r="I31" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="7">
+        <v>510</v>
+      </c>
+      <c r="N31" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>527</v>
+      </c>
+      <c r="D32" s="7">
+        <v>551408</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="H32" s="7">
+        <v>452</v>
+      </c>
+      <c r="I32" s="7">
+        <v>476412</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="M32" s="7">
+        <v>979</v>
+      </c>
+      <c r="N32" s="7">
+        <v>1027820</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7">
+        <v>1649</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1693412</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="H33" s="7">
+        <v>1554</v>
+      </c>
+      <c r="I33" s="7">
+        <v>1587673</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="M33" s="7">
+        <v>3203</v>
+      </c>
+      <c r="N33" s="7">
+        <v>3281086</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="7">
+        <v>1038</v>
+      </c>
+      <c r="D34" s="7">
+        <v>1031723</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H34" s="7">
+        <v>1291</v>
+      </c>
+      <c r="I34" s="7">
+        <v>1315113</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="M34" s="7">
+        <v>2329</v>
+      </c>
+      <c r="N34" s="7">
+        <v>2346836</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>3214</v>
       </c>
-      <c r="D31" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="D35" s="7">
+        <v>3276543</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="7">
         <v>3297</v>
       </c>
-      <c r="I31" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="I35" s="7">
+        <v>3379197</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M35" s="7">
         <v>6511</v>
       </c>
-      <c r="N31" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>207</v>
+      <c r="N35" s="7">
+        <v>6655741</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4216,8 +4693,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D2D2BDF-44BD-4886-A86D-905A06252442}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E522FDD4-8631-4BF9-8345-D66F541BE050}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4233,7 +4710,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4340,13 +4817,13 @@
         <v>16737</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="H4" s="7">
         <v>50</v>
@@ -4355,13 +4832,13 @@
         <v>52513</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>132</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="M4" s="7">
         <v>67</v>
@@ -4370,13 +4847,13 @@
         <v>69250</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4391,13 +4868,13 @@
         <v>381454</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="H5" s="7">
         <v>334</v>
@@ -4406,13 +4883,13 @@
         <v>340171</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="M5" s="7">
         <v>708</v>
@@ -4421,13 +4898,13 @@
         <v>721626</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4442,13 +4919,13 @@
         <v>55955</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>132</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="H6" s="7">
         <v>37</v>
@@ -4457,13 +4934,13 @@
         <v>37545</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="M6" s="7">
         <v>92</v>
@@ -4472,10 +4949,10 @@
         <v>93500</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>231</v>
+        <v>258</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>16</v>
@@ -4543,16 +5020,16 @@
         <v>167</v>
       </c>
       <c r="D8" s="7">
-        <v>172666</v>
+        <v>172667</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="H8" s="7">
         <v>155</v>
@@ -4561,13 +5038,13 @@
         <v>167931</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="M8" s="7">
         <v>322</v>
@@ -4576,13 +5053,13 @@
         <v>340597</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>239</v>
+        <v>266</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4597,13 +5074,13 @@
         <v>446667</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>244</v>
+        <v>271</v>
       </c>
       <c r="H9" s="7">
         <v>351</v>
@@ -4612,13 +5089,13 @@
         <v>370722</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="M9" s="7">
         <v>785</v>
@@ -4627,13 +5104,13 @@
         <v>817389</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4648,13 +5125,13 @@
         <v>65837</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="H10" s="7">
         <v>64</v>
@@ -4663,13 +5140,13 @@
         <v>70634</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="M10" s="7">
         <v>128</v>
@@ -4678,13 +5155,13 @@
         <v>136471</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>258</v>
+        <v>285</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>259</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4696,7 +5173,7 @@
         <v>665</v>
       </c>
       <c r="D11" s="7">
-        <v>685170</v>
+        <v>685171</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -4752,13 +5229,13 @@
         <v>116918</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="H12" s="7">
         <v>104</v>
@@ -4767,13 +5244,13 @@
         <v>112228</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="M12" s="7">
         <v>210</v>
@@ -4782,13 +5259,13 @@
         <v>229146</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4803,13 +5280,13 @@
         <v>449421</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="H13" s="7">
         <v>432</v>
@@ -4818,13 +5295,13 @@
         <v>458661</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="M13" s="7">
         <v>866</v>
@@ -4833,13 +5310,13 @@
         <v>908082</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>276</v>
+        <v>303</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>277</v>
+        <v>304</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4854,13 +5331,13 @@
         <v>112808</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>278</v>
+        <v>305</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>279</v>
+        <v>306</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>280</v>
+        <v>307</v>
       </c>
       <c r="H14" s="7">
         <v>131</v>
@@ -4869,10 +5346,10 @@
         <v>139961</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>281</v>
+        <v>170</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>100</v>
@@ -4884,10 +5361,10 @@
         <v>252769</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>33</v>
@@ -4958,13 +5435,13 @@
         <v>108134</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="H16" s="7">
         <v>71</v>
@@ -4973,13 +5450,13 @@
         <v>87683</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>289</v>
+        <v>315</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>290</v>
+        <v>316</v>
       </c>
       <c r="M16" s="7">
         <v>162</v>
@@ -4988,13 +5465,13 @@
         <v>195817</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>292</v>
+        <v>318</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>293</v>
+        <v>319</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5009,13 +5486,13 @@
         <v>370110</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>294</v>
+        <v>320</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>295</v>
+        <v>321</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>296</v>
+        <v>322</v>
       </c>
       <c r="H17" s="7">
         <v>295</v>
@@ -5024,13 +5501,13 @@
         <v>337726</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>297</v>
+        <v>323</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>298</v>
+        <v>324</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>299</v>
+        <v>325</v>
       </c>
       <c r="M17" s="7">
         <v>626</v>
@@ -5039,13 +5516,13 @@
         <v>707836</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>300</v>
+        <v>326</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>301</v>
+        <v>327</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>302</v>
+        <v>328</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5060,13 +5537,13 @@
         <v>136373</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>303</v>
+        <v>329</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>304</v>
+        <v>330</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>305</v>
+        <v>331</v>
       </c>
       <c r="H18" s="7">
         <v>173</v>
@@ -5075,13 +5552,13 @@
         <v>190790</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>306</v>
+        <v>332</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>307</v>
+        <v>333</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>308</v>
+        <v>334</v>
       </c>
       <c r="M18" s="7">
         <v>299</v>
@@ -5090,13 +5567,13 @@
         <v>327163</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>309</v>
+        <v>335</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>310</v>
+        <v>336</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>311</v>
+        <v>337</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5164,13 +5641,13 @@
         <v>40151</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>312</v>
+        <v>338</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>313</v>
+        <v>339</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>314</v>
+        <v>340</v>
       </c>
       <c r="H20" s="7">
         <v>14</v>
@@ -5179,13 +5656,13 @@
         <v>16031</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>315</v>
+        <v>341</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>316</v>
+        <v>342</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>317</v>
+        <v>343</v>
       </c>
       <c r="M20" s="7">
         <v>50</v>
@@ -5194,13 +5671,13 @@
         <v>56182</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>318</v>
+        <v>344</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>320</v>
+        <v>346</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5215,13 +5692,13 @@
         <v>197640</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>321</v>
+        <v>347</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>322</v>
+        <v>348</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>323</v>
+        <v>349</v>
       </c>
       <c r="H21" s="7">
         <v>146</v>
@@ -5230,13 +5707,13 @@
         <v>167448</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>324</v>
+        <v>350</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>325</v>
+        <v>351</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>326</v>
+        <v>352</v>
       </c>
       <c r="M21" s="7">
         <v>324</v>
@@ -5245,13 +5722,13 @@
         <v>365088</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>327</v>
+        <v>353</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>328</v>
+        <v>354</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>329</v>
+        <v>355</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5266,13 +5743,13 @@
         <v>189273</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>330</v>
+        <v>356</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>332</v>
+        <v>358</v>
       </c>
       <c r="H22" s="7">
         <v>246</v>
@@ -5281,13 +5758,13 @@
         <v>264321</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>333</v>
+        <v>359</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>334</v>
+        <v>360</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>335</v>
+        <v>361</v>
       </c>
       <c r="M22" s="7">
         <v>423</v>
@@ -5296,13 +5773,13 @@
         <v>453595</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>336</v>
+        <v>362</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>337</v>
+        <v>363</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>338</v>
+        <v>364</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5364,49 +5841,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D24" s="7">
-        <v>26575</v>
+        <v>22389</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>339</v>
+        <v>365</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>340</v>
+        <v>366</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>341</v>
+        <v>367</v>
       </c>
       <c r="H24" s="7">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I24" s="7">
-        <v>22246</v>
+        <v>13307</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>342</v>
+        <v>368</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>343</v>
+        <v>369</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>344</v>
+        <v>370</v>
       </c>
       <c r="M24" s="7">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="N24" s="7">
-        <v>48821</v>
+        <v>35696</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>345</v>
+        <v>371</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>346</v>
+        <v>372</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>347</v>
+        <v>373</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5415,49 +5892,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="D25" s="7">
-        <v>118665</v>
+        <v>83599</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>348</v>
+        <v>374</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>349</v>
+        <v>329</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>350</v>
+        <v>375</v>
       </c>
       <c r="H25" s="7">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="I25" s="7">
-        <v>83074</v>
+        <v>56141</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>351</v>
+        <v>376</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>352</v>
+        <v>377</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>353</v>
+        <v>378</v>
       </c>
       <c r="M25" s="7">
-        <v>182</v>
+        <v>128</v>
       </c>
       <c r="N25" s="7">
-        <v>201739</v>
+        <v>139740</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>354</v>
+        <v>379</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>355</v>
+        <v>380</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>356</v>
+        <v>381</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5466,49 +5943,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>378</v>
+        <v>190</v>
       </c>
       <c r="D26" s="7">
-        <v>414398</v>
+        <v>203799</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>357</v>
+        <v>382</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>358</v>
+        <v>383</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>359</v>
+        <v>384</v>
       </c>
       <c r="H26" s="7">
-        <v>596</v>
+        <v>279</v>
       </c>
       <c r="I26" s="7">
-        <v>634545</v>
+        <v>283603</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>360</v>
+        <v>385</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>361</v>
+        <v>386</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>362</v>
+        <v>387</v>
       </c>
       <c r="M26" s="7">
-        <v>974</v>
+        <v>469</v>
       </c>
       <c r="N26" s="7">
-        <v>1048942</v>
+        <v>487402</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>363</v>
+        <v>388</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>364</v>
+        <v>389</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>365</v>
+        <v>390</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5517,10 +5994,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D27" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -5532,10 +6009,10 @@
         <v>40</v>
       </c>
       <c r="H27" s="7">
-        <v>691</v>
+        <v>343</v>
       </c>
       <c r="I27" s="7">
-        <v>739865</v>
+        <v>353051</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>40</v>
@@ -5547,10 +6024,10 @@
         <v>40</v>
       </c>
       <c r="M27" s="7">
-        <v>1195</v>
+        <v>625</v>
       </c>
       <c r="N27" s="7">
-        <v>1299502</v>
+        <v>662837</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -5564,55 +6041,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>180</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>438</v>
+        <v>4</v>
       </c>
       <c r="D28" s="7">
-        <v>481181</v>
+        <v>4186</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>366</v>
+        <v>391</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>367</v>
+        <v>392</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>368</v>
+        <v>393</v>
       </c>
       <c r="H28" s="7">
-        <v>412</v>
+        <v>7</v>
       </c>
       <c r="I28" s="7">
-        <v>458631</v>
+        <v>8939</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>369</v>
+        <v>237</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>370</v>
+        <v>394</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>366</v>
+        <v>395</v>
       </c>
       <c r="M28" s="7">
-        <v>850</v>
+        <v>11</v>
       </c>
       <c r="N28" s="7">
-        <v>939813</v>
+        <v>13125</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>371</v>
+        <v>396</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>372</v>
+        <v>397</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>256</v>
+        <v>398</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5621,49 +6098,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>1856</v>
+        <v>30</v>
       </c>
       <c r="D29" s="7">
-        <v>1963957</v>
+        <v>35066</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>373</v>
+        <v>399</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>374</v>
+        <v>400</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>375</v>
+        <v>401</v>
       </c>
       <c r="H29" s="7">
-        <v>1635</v>
+        <v>24</v>
       </c>
       <c r="I29" s="7">
-        <v>1757803</v>
+        <v>26933</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>376</v>
+        <v>402</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>377</v>
+        <v>403</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>378</v>
+        <v>404</v>
       </c>
       <c r="M29" s="7">
-        <v>3491</v>
+        <v>54</v>
       </c>
       <c r="N29" s="7">
-        <v>3721760</v>
+        <v>61999</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>379</v>
+        <v>405</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>380</v>
+        <v>406</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>381</v>
+        <v>407</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5672,49 +6149,49 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>908</v>
+        <v>188</v>
       </c>
       <c r="D30" s="7">
-        <v>974643</v>
+        <v>210599</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>382</v>
+        <v>408</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>383</v>
+        <v>409</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>384</v>
+        <v>410</v>
       </c>
       <c r="H30" s="7">
-        <v>1247</v>
+        <v>317</v>
       </c>
       <c r="I30" s="7">
-        <v>1337796</v>
+        <v>350942</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>385</v>
+        <v>411</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>386</v>
+        <v>412</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>387</v>
+        <v>413</v>
       </c>
       <c r="M30" s="7">
-        <v>2155</v>
+        <v>505</v>
       </c>
       <c r="N30" s="7">
-        <v>2312440</v>
+        <v>561541</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>388</v>
+        <v>414</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>389</v>
+        <v>415</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>390</v>
+        <v>416</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5723,63 +6200,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>222</v>
+      </c>
+      <c r="D31" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="7">
+        <v>348</v>
+      </c>
+      <c r="I31" s="7">
+        <v>386814</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="7">
+        <v>570</v>
+      </c>
+      <c r="N31" s="7">
+        <v>636665</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>438</v>
+      </c>
+      <c r="D32" s="7">
+        <v>481181</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="H32" s="7">
+        <v>412</v>
+      </c>
+      <c r="I32" s="7">
+        <v>458631</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="M32" s="7">
+        <v>850</v>
+      </c>
+      <c r="N32" s="7">
+        <v>939813</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7">
+        <v>1856</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1963957</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="H33" s="7">
+        <v>1635</v>
+      </c>
+      <c r="I33" s="7">
+        <v>1757803</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="M33" s="7">
+        <v>3491</v>
+      </c>
+      <c r="N33" s="7">
+        <v>3721760</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="7">
+        <v>908</v>
+      </c>
+      <c r="D34" s="7">
+        <v>974643</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="H34" s="7">
+        <v>1247</v>
+      </c>
+      <c r="I34" s="7">
+        <v>1337796</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="M34" s="7">
+        <v>2155</v>
+      </c>
+      <c r="N34" s="7">
+        <v>2312440</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>3202</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D35" s="7">
         <v>3419782</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="7">
         <v>3294</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I35" s="7">
         <v>3554230</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M35" s="7">
         <v>6496</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N35" s="7">
         <v>6974012</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>207</v>
+      <c r="O35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5792,8 +6476,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{269CB4C6-A87D-4938-BDE9-58490B90ECFE}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38A37C94-8CF5-4890-A2B2-4598688BF5A2}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5809,7 +6493,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>391</v>
+        <v>441</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5916,13 +6600,13 @@
         <v>41381</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>392</v>
+        <v>442</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>393</v>
+        <v>443</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>394</v>
+        <v>169</v>
       </c>
       <c r="H4" s="7">
         <v>47</v>
@@ -5931,13 +6615,13 @@
         <v>45351</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>395</v>
+        <v>444</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>396</v>
+        <v>191</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>397</v>
+        <v>445</v>
       </c>
       <c r="M4" s="7">
         <v>86</v>
@@ -5946,13 +6630,13 @@
         <v>86732</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>398</v>
+        <v>446</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>399</v>
+        <v>447</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>400</v>
+        <v>448</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5967,13 +6651,13 @@
         <v>345420</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>401</v>
+        <v>449</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>402</v>
+        <v>450</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>403</v>
+        <v>451</v>
       </c>
       <c r="H5" s="7">
         <v>329</v>
@@ -5982,13 +6666,13 @@
         <v>322926</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>404</v>
+        <v>452</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>405</v>
+        <v>453</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>406</v>
+        <v>454</v>
       </c>
       <c r="M5" s="7">
         <v>652</v>
@@ -5997,13 +6681,13 @@
         <v>668346</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>407</v>
+        <v>455</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>408</v>
+        <v>456</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>409</v>
+        <v>457</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6018,10 +6702,10 @@
         <v>27361</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>410</v>
+        <v>458</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>161</v>
+        <v>459</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>132</v>
@@ -6033,13 +6717,13 @@
         <v>25482</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>411</v>
+        <v>460</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>412</v>
+        <v>461</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>413</v>
+        <v>462</v>
       </c>
       <c r="M6" s="7">
         <v>52</v>
@@ -6048,13 +6732,13 @@
         <v>52842</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>414</v>
+        <v>463</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>347</v>
+        <v>464</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>415</v>
+        <v>465</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6122,13 +6806,13 @@
         <v>132223</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>416</v>
+        <v>466</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>417</v>
+        <v>467</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>418</v>
+        <v>468</v>
       </c>
       <c r="H8" s="7">
         <v>167</v>
@@ -6137,13 +6821,13 @@
         <v>163702</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>419</v>
+        <v>469</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>420</v>
+        <v>470</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>421</v>
+        <v>471</v>
       </c>
       <c r="M8" s="7">
         <v>295</v>
@@ -6152,13 +6836,13 @@
         <v>295925</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>422</v>
+        <v>472</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>423</v>
+        <v>473</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>424</v>
+        <v>474</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6173,13 +6857,13 @@
         <v>388305</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>425</v>
+        <v>475</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>426</v>
+        <v>476</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>427</v>
+        <v>477</v>
       </c>
       <c r="H9" s="7">
         <v>365</v>
@@ -6188,13 +6872,13 @@
         <v>353761</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>428</v>
+        <v>478</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>429</v>
+        <v>479</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>430</v>
+        <v>480</v>
       </c>
       <c r="M9" s="7">
         <v>737</v>
@@ -6203,13 +6887,13 @@
         <v>742066</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>431</v>
+        <v>481</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>432</v>
+        <v>482</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>433</v>
+        <v>483</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6224,13 +6908,13 @@
         <v>65049</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>434</v>
+        <v>484</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>435</v>
+        <v>485</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>436</v>
+        <v>486</v>
       </c>
       <c r="H10" s="7">
         <v>46</v>
@@ -6239,13 +6923,13 @@
         <v>45102</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>437</v>
+        <v>487</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>438</v>
+        <v>488</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>439</v>
+        <v>489</v>
       </c>
       <c r="M10" s="7">
         <v>108</v>
@@ -6257,10 +6941,10 @@
         <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>440</v>
+        <v>490</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>441</v>
+        <v>491</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6328,13 +7012,13 @@
         <v>151940</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>442</v>
+        <v>492</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>94</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>443</v>
+        <v>493</v>
       </c>
       <c r="H12" s="7">
         <v>154</v>
@@ -6343,13 +7027,13 @@
         <v>157822</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>444</v>
+        <v>494</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>445</v>
+        <v>495</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>446</v>
+        <v>496</v>
       </c>
       <c r="M12" s="7">
         <v>293</v>
@@ -6358,13 +7042,13 @@
         <v>309763</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>447</v>
+        <v>497</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>448</v>
+        <v>498</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>449</v>
+        <v>499</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6379,13 +7063,13 @@
         <v>436542</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>452</v>
+        <v>502</v>
       </c>
       <c r="H13" s="7">
         <v>440</v>
@@ -6394,13 +7078,13 @@
         <v>436359</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>453</v>
+        <v>503</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>454</v>
+        <v>504</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>455</v>
+        <v>505</v>
       </c>
       <c r="M13" s="7">
         <v>860</v>
@@ -6409,13 +7093,13 @@
         <v>872902</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>456</v>
+        <v>506</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>457</v>
+        <v>507</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>458</v>
+        <v>508</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6430,13 +7114,13 @@
         <v>79103</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>459</v>
+        <v>509</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="H14" s="7">
         <v>67</v>
@@ -6445,13 +7129,13 @@
         <v>63294</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>460</v>
+        <v>510</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>461</v>
+        <v>511</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="M14" s="7">
         <v>145</v>
@@ -6460,13 +7144,13 @@
         <v>142397</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>462</v>
+        <v>512</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>463</v>
+        <v>513</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>464</v>
+        <v>514</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6534,13 +7218,13 @@
         <v>98907</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>465</v>
+        <v>515</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>464</v>
+        <v>514</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>466</v>
+        <v>516</v>
       </c>
       <c r="H16" s="7">
         <v>95</v>
@@ -6549,13 +7233,13 @@
         <v>103612</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>467</v>
+        <v>517</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>468</v>
+        <v>518</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>469</v>
+        <v>519</v>
       </c>
       <c r="M16" s="7">
         <v>181</v>
@@ -6564,13 +7248,13 @@
         <v>202520</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>470</v>
+        <v>520</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>471</v>
+        <v>521</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>472</v>
+        <v>522</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6585,13 +7269,13 @@
         <v>454052</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>473</v>
+        <v>523</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>474</v>
+        <v>524</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="H17" s="7">
         <v>385</v>
@@ -6600,13 +7284,13 @@
         <v>417481</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>431</v>
+        <v>481</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>476</v>
+        <v>526</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>477</v>
+        <v>527</v>
       </c>
       <c r="M17" s="7">
         <v>794</v>
@@ -6615,13 +7299,13 @@
         <v>871533</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>478</v>
+        <v>528</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>479</v>
+        <v>529</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>480</v>
+        <v>530</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6636,28 +7320,28 @@
         <v>92003</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>481</v>
+        <v>531</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>289</v>
+        <v>315</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>482</v>
+        <v>532</v>
       </c>
       <c r="H18" s="7">
         <v>119</v>
       </c>
       <c r="I18" s="7">
-        <v>124885</v>
+        <v>124884</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>483</v>
+        <v>533</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>484</v>
+        <v>534</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>485</v>
+        <v>535</v>
       </c>
       <c r="M18" s="7">
         <v>205</v>
@@ -6666,13 +7350,13 @@
         <v>216887</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>486</v>
+        <v>536</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>487</v>
+        <v>537</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>488</v>
+        <v>538</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6699,7 +7383,7 @@
         <v>599</v>
       </c>
       <c r="I19" s="7">
-        <v>645978</v>
+        <v>645977</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -6740,13 +7424,13 @@
         <v>80406</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>489</v>
+        <v>539</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>490</v>
+        <v>540</v>
       </c>
       <c r="H20" s="7">
         <v>37</v>
@@ -6755,13 +7439,13 @@
         <v>44979</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>491</v>
+        <v>541</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>492</v>
+        <v>542</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>493</v>
+        <v>543</v>
       </c>
       <c r="M20" s="7">
         <v>105</v>
@@ -6770,10 +7454,10 @@
         <v>125384</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>494</v>
+        <v>544</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>495</v>
+        <v>545</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>104</v>
@@ -6791,13 +7475,13 @@
         <v>259533</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>496</v>
+        <v>546</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>497</v>
+        <v>547</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>498</v>
+        <v>548</v>
       </c>
       <c r="H21" s="7">
         <v>232</v>
@@ -6806,13 +7490,13 @@
         <v>269699</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>499</v>
+        <v>549</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>501</v>
+        <v>551</v>
       </c>
       <c r="M21" s="7">
         <v>463</v>
@@ -6821,13 +7505,13 @@
         <v>529233</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>502</v>
+        <v>552</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>503</v>
+        <v>553</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>504</v>
+        <v>554</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6842,13 +7526,13 @@
         <v>136930</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>505</v>
+        <v>555</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>506</v>
+        <v>381</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>507</v>
+        <v>556</v>
       </c>
       <c r="H22" s="7">
         <v>163</v>
@@ -6857,13 +7541,13 @@
         <v>181141</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>508</v>
+        <v>557</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>509</v>
+        <v>558</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>510</v>
+        <v>559</v>
       </c>
       <c r="M22" s="7">
         <v>287</v>
@@ -6872,13 +7556,13 @@
         <v>318071</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>511</v>
+        <v>560</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>512</v>
+        <v>561</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>513</v>
+        <v>562</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6940,49 +7624,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D24" s="7">
-        <v>42029</v>
+        <v>29209</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>514</v>
+        <v>563</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>515</v>
+        <v>564</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>516</v>
+        <v>407</v>
       </c>
       <c r="H24" s="7">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I24" s="7">
-        <v>33674</v>
+        <v>23283</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>517</v>
+        <v>565</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>518</v>
+        <v>566</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>519</v>
+        <v>567</v>
       </c>
       <c r="M24" s="7">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="N24" s="7">
-        <v>75703</v>
+        <v>52491</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>520</v>
+        <v>568</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>517</v>
+        <v>569</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>521</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6991,49 +7675,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>197</v>
+        <v>129</v>
       </c>
       <c r="D25" s="7">
-        <v>192532</v>
+        <v>134076</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>522</v>
+        <v>570</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>523</v>
+        <v>571</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>524</v>
+        <v>572</v>
       </c>
       <c r="H25" s="7">
-        <v>157</v>
+        <v>106</v>
       </c>
       <c r="I25" s="7">
-        <v>188074</v>
+        <v>116546</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>525</v>
+        <v>573</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>526</v>
+        <v>574</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>527</v>
+        <v>575</v>
       </c>
       <c r="M25" s="7">
-        <v>354</v>
+        <v>235</v>
       </c>
       <c r="N25" s="7">
-        <v>380606</v>
+        <v>250622</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>528</v>
+        <v>576</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>529</v>
+        <v>577</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>530</v>
+        <v>578</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7042,49 +7726,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>386</v>
+        <v>168</v>
       </c>
       <c r="D26" s="7">
-        <v>353902</v>
+        <v>169047</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>531</v>
+        <v>579</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>532</v>
+        <v>580</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>533</v>
+        <v>581</v>
       </c>
       <c r="H26" s="7">
-        <v>471</v>
+        <v>228</v>
       </c>
       <c r="I26" s="7">
-        <v>554757</v>
+        <v>237933</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>534</v>
+        <v>582</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>535</v>
+        <v>583</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>536</v>
+        <v>584</v>
       </c>
       <c r="M26" s="7">
-        <v>857</v>
+        <v>396</v>
       </c>
       <c r="N26" s="7">
-        <v>908658</v>
+        <v>406979</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>537</v>
+        <v>585</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>538</v>
+        <v>586</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>539</v>
+        <v>587</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7093,10 +7777,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>624</v>
+        <v>323</v>
       </c>
       <c r="D27" s="7">
-        <v>588463</v>
+        <v>332331</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -7108,10 +7792,10 @@
         <v>40</v>
       </c>
       <c r="H27" s="7">
-        <v>654</v>
+        <v>354</v>
       </c>
       <c r="I27" s="7">
-        <v>776505</v>
+        <v>377762</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>40</v>
@@ -7123,10 +7807,10 @@
         <v>40</v>
       </c>
       <c r="M27" s="7">
-        <v>1278</v>
+        <v>677</v>
       </c>
       <c r="N27" s="7">
-        <v>1364968</v>
+        <v>710093</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -7140,55 +7824,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>180</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>501</v>
+        <v>15</v>
       </c>
       <c r="D28" s="7">
-        <v>546886</v>
+        <v>12820</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>540</v>
+        <v>588</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>541</v>
+        <v>589</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>290</v>
+        <v>590</v>
       </c>
       <c r="H28" s="7">
-        <v>526</v>
+        <v>6</v>
       </c>
       <c r="I28" s="7">
-        <v>549140</v>
+        <v>10391</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>542</v>
+        <v>591</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>164</v>
+        <v>592</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>543</v>
+        <v>593</v>
       </c>
       <c r="M28" s="7">
-        <v>1027</v>
+        <v>21</v>
       </c>
       <c r="N28" s="7">
-        <v>1096027</v>
+        <v>23212</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>544</v>
+        <v>372</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>545</v>
+        <v>594</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>546</v>
+        <v>595</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7197,49 +7881,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>1952</v>
+        <v>68</v>
       </c>
       <c r="D29" s="7">
-        <v>2076385</v>
+        <v>58456</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>547</v>
+        <v>596</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>548</v>
+        <v>597</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>248</v>
+        <v>598</v>
       </c>
       <c r="H29" s="7">
-        <v>1908</v>
+        <v>51</v>
       </c>
       <c r="I29" s="7">
-        <v>1988300</v>
+        <v>71528</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>549</v>
+        <v>599</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>550</v>
+        <v>34</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>551</v>
+        <v>600</v>
       </c>
       <c r="M29" s="7">
-        <v>3860</v>
+        <v>119</v>
       </c>
       <c r="N29" s="7">
-        <v>4064685</v>
+        <v>129984</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>79</v>
+        <v>601</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>552</v>
+        <v>602</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>553</v>
+        <v>603</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7248,49 +7932,49 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>762</v>
+        <v>218</v>
       </c>
       <c r="D30" s="7">
-        <v>754347</v>
+        <v>184855</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>554</v>
+        <v>604</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>555</v>
+        <v>605</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>556</v>
+        <v>606</v>
       </c>
       <c r="H30" s="7">
-        <v>892</v>
+        <v>243</v>
       </c>
       <c r="I30" s="7">
-        <v>994660</v>
+        <v>316824</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>557</v>
+        <v>607</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>558</v>
+        <v>608</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>559</v>
+        <v>609</v>
       </c>
       <c r="M30" s="7">
-        <v>1654</v>
+        <v>461</v>
       </c>
       <c r="N30" s="7">
-        <v>1749007</v>
+        <v>501678</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>560</v>
+        <v>610</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>561</v>
+        <v>611</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>562</v>
+        <v>612</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7299,63 +7983,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>301</v>
+      </c>
+      <c r="D31" s="7">
+        <v>256131</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="7">
+        <v>300</v>
+      </c>
+      <c r="I31" s="7">
+        <v>398743</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="7">
+        <v>601</v>
+      </c>
+      <c r="N31" s="7">
+        <v>654874</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>501</v>
+      </c>
+      <c r="D32" s="7">
+        <v>546886</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="H32" s="7">
+        <v>526</v>
+      </c>
+      <c r="I32" s="7">
+        <v>549140</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="M32" s="7">
+        <v>1027</v>
+      </c>
+      <c r="N32" s="7">
+        <v>1096027</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7">
+        <v>1952</v>
+      </c>
+      <c r="D33" s="7">
+        <v>2076385</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="H33" s="7">
+        <v>1908</v>
+      </c>
+      <c r="I33" s="7">
+        <v>1988300</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="M33" s="7">
+        <v>3860</v>
+      </c>
+      <c r="N33" s="7">
+        <v>4064685</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="7">
+        <v>762</v>
+      </c>
+      <c r="D34" s="7">
+        <v>754347</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="H34" s="7">
+        <v>892</v>
+      </c>
+      <c r="I34" s="7">
+        <v>994660</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="M34" s="7">
+        <v>1654</v>
+      </c>
+      <c r="N34" s="7">
+        <v>1749007</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>3215</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D35" s="7">
         <v>3377618</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="7">
         <v>3326</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I35" s="7">
         <v>3532100</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M35" s="7">
         <v>6541</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N35" s="7">
         <v>6909718</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>207</v>
+      <c r="O35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -7368,8 +8259,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33F1A78C-AC73-40C3-99D3-4D1CF042253B}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{915D33A6-CA5D-49F4-BFB7-897715A98E57}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -7385,7 +8276,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>563</v>
+        <v>636</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7489,46 +8380,46 @@
         <v>19</v>
       </c>
       <c r="D4" s="7">
-        <v>35298</v>
+        <v>35049</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>564</v>
+        <v>447</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>565</v>
+        <v>637</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>566</v>
+        <v>638</v>
       </c>
       <c r="H4" s="7">
         <v>30</v>
       </c>
       <c r="I4" s="7">
-        <v>45067</v>
+        <v>40724</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>567</v>
+        <v>212</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>569</v>
+        <v>295</v>
       </c>
       <c r="M4" s="7">
         <v>49</v>
       </c>
       <c r="N4" s="7">
-        <v>80364</v>
+        <v>75772</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>570</v>
+        <v>639</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>571</v>
+        <v>640</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>572</v>
+        <v>641</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7540,46 +8431,46 @@
         <v>144</v>
       </c>
       <c r="D5" s="7">
-        <v>331332</v>
+        <v>352742</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>573</v>
+        <v>642</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>223</v>
+        <v>643</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>574</v>
+        <v>644</v>
       </c>
       <c r="H5" s="7">
         <v>170</v>
       </c>
       <c r="I5" s="7">
-        <v>296879</v>
+        <v>259932</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>575</v>
+        <v>645</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>576</v>
+        <v>646</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>577</v>
+        <v>647</v>
       </c>
       <c r="M5" s="7">
         <v>314</v>
       </c>
       <c r="N5" s="7">
-        <v>628211</v>
+        <v>612673</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>578</v>
+        <v>648</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>579</v>
+        <v>649</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>580</v>
+        <v>650</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7591,46 +8482,46 @@
         <v>9</v>
       </c>
       <c r="D6" s="7">
-        <v>11049</v>
+        <v>12197</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>581</v>
+        <v>651</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>582</v>
+        <v>652</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>583</v>
+        <v>653</v>
       </c>
       <c r="H6" s="7">
         <v>7</v>
       </c>
       <c r="I6" s="7">
-        <v>13011</v>
+        <v>12545</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>584</v>
+        <v>566</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>585</v>
+        <v>654</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>586</v>
+        <v>655</v>
       </c>
       <c r="M6" s="7">
         <v>16</v>
       </c>
       <c r="N6" s="7">
-        <v>24060</v>
+        <v>24741</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>587</v>
+        <v>656</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>588</v>
+        <v>657</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>589</v>
+        <v>658</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7642,7 +8533,7 @@
         <v>172</v>
       </c>
       <c r="D7" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -7657,7 +8548,7 @@
         <v>207</v>
       </c>
       <c r="I7" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -7672,7 +8563,7 @@
         <v>379</v>
       </c>
       <c r="N7" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -7695,46 +8586,46 @@
         <v>60</v>
       </c>
       <c r="D8" s="7">
-        <v>94387</v>
+        <v>92405</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>590</v>
+        <v>659</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>591</v>
+        <v>617</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>592</v>
+        <v>660</v>
       </c>
       <c r="H8" s="7">
         <v>134</v>
       </c>
       <c r="I8" s="7">
-        <v>152852</v>
+        <v>142232</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>593</v>
+        <v>661</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>594</v>
+        <v>662</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>595</v>
+        <v>663</v>
       </c>
       <c r="M8" s="7">
         <v>194</v>
       </c>
       <c r="N8" s="7">
-        <v>247239</v>
+        <v>234637</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>596</v>
+        <v>664</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>597</v>
+        <v>665</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>598</v>
+        <v>666</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7746,46 +8637,46 @@
         <v>214</v>
       </c>
       <c r="D9" s="7">
-        <v>301489</v>
+        <v>296327</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>599</v>
+        <v>667</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>600</v>
+        <v>668</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>601</v>
+        <v>669</v>
       </c>
       <c r="H9" s="7">
         <v>305</v>
       </c>
       <c r="I9" s="7">
-        <v>328751</v>
+        <v>353205</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>602</v>
+        <v>670</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>603</v>
+        <v>671</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>604</v>
+        <v>672</v>
       </c>
       <c r="M9" s="7">
         <v>519</v>
       </c>
       <c r="N9" s="7">
-        <v>630240</v>
+        <v>649532</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>605</v>
+        <v>673</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>606</v>
+        <v>674</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>607</v>
+        <v>675</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7797,46 +8688,46 @@
         <v>26</v>
       </c>
       <c r="D10" s="7">
-        <v>30989</v>
+        <v>33469</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>608</v>
+        <v>676</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>609</v>
+        <v>677</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>610</v>
+        <v>678</v>
       </c>
       <c r="H10" s="7">
         <v>21</v>
       </c>
       <c r="I10" s="7">
-        <v>16974</v>
+        <v>16067</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>611</v>
+        <v>679</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>343</v>
+        <v>680</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>612</v>
+        <v>681</v>
       </c>
       <c r="M10" s="7">
         <v>47</v>
       </c>
       <c r="N10" s="7">
-        <v>47963</v>
+        <v>49536</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>613</v>
+        <v>682</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>614</v>
+        <v>683</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>615</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7848,7 +8739,7 @@
         <v>300</v>
       </c>
       <c r="D11" s="7">
-        <v>426864</v>
+        <v>422201</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -7863,7 +8754,7 @@
         <v>460</v>
       </c>
       <c r="I11" s="7">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -7878,7 +8769,7 @@
         <v>760</v>
       </c>
       <c r="N11" s="7">
-        <v>925442</v>
+        <v>933705</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -7901,46 +8792,46 @@
         <v>141</v>
       </c>
       <c r="D12" s="7">
-        <v>151425</v>
+        <v>144829</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>616</v>
+        <v>684</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>617</v>
+        <v>100</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>618</v>
+        <v>685</v>
       </c>
       <c r="H12" s="7">
         <v>232</v>
       </c>
       <c r="I12" s="7">
-        <v>157055</v>
+        <v>147013</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>619</v>
+        <v>686</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>620</v>
+        <v>687</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>621</v>
+        <v>688</v>
       </c>
       <c r="M12" s="7">
         <v>373</v>
       </c>
       <c r="N12" s="7">
-        <v>308480</v>
+        <v>291841</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>622</v>
+        <v>689</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>623</v>
+        <v>690</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7952,46 +8843,46 @@
         <v>354</v>
       </c>
       <c r="D13" s="7">
-        <v>364912</v>
+        <v>352349</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>625</v>
+        <v>691</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>626</v>
+        <v>692</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>539</v>
+        <v>693</v>
       </c>
       <c r="H13" s="7">
         <v>564</v>
       </c>
       <c r="I13" s="7">
-        <v>394940</v>
+        <v>365932</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>627</v>
+        <v>694</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>628</v>
+        <v>695</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>629</v>
+        <v>696</v>
       </c>
       <c r="M13" s="7">
         <v>918</v>
       </c>
       <c r="N13" s="7">
-        <v>759852</v>
+        <v>718279</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>630</v>
+        <v>605</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>631</v>
+        <v>697</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>632</v>
+        <v>698</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8003,46 +8894,46 @@
         <v>49</v>
       </c>
       <c r="D14" s="7">
-        <v>40595</v>
+        <v>38832</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>633</v>
+        <v>699</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>612</v>
+        <v>700</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>460</v>
+        <v>701</v>
       </c>
       <c r="H14" s="7">
         <v>49</v>
       </c>
       <c r="I14" s="7">
-        <v>31321</v>
+        <v>29358</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>634</v>
+        <v>700</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>157</v>
+        <v>566</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>635</v>
+        <v>702</v>
       </c>
       <c r="M14" s="7">
         <v>98</v>
       </c>
       <c r="N14" s="7">
-        <v>71916</v>
+        <v>68190</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>636</v>
+        <v>703</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>130</v>
+        <v>464</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>637</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8054,7 +8945,7 @@
         <v>544</v>
       </c>
       <c r="D15" s="7">
-        <v>556932</v>
+        <v>536010</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -8069,7 +8960,7 @@
         <v>845</v>
       </c>
       <c r="I15" s="7">
-        <v>583316</v>
+        <v>542302</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -8084,7 +8975,7 @@
         <v>1389</v>
       </c>
       <c r="N15" s="7">
-        <v>1140249</v>
+        <v>1078311</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -8107,46 +8998,46 @@
         <v>161</v>
       </c>
       <c r="D16" s="7">
-        <v>165501</v>
+        <v>162137</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>638</v>
+        <v>704</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>639</v>
+        <v>705</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>640</v>
+        <v>706</v>
       </c>
       <c r="H16" s="7">
         <v>283</v>
       </c>
       <c r="I16" s="7">
-        <v>181613</v>
+        <v>168302</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>641</v>
+        <v>707</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>642</v>
+        <v>708</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>643</v>
+        <v>709</v>
       </c>
       <c r="M16" s="7">
         <v>444</v>
       </c>
       <c r="N16" s="7">
-        <v>347114</v>
+        <v>330439</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>644</v>
+        <v>710</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>645</v>
+        <v>711</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>646</v>
+        <v>712</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8158,46 +9049,46 @@
         <v>445</v>
       </c>
       <c r="D17" s="7">
-        <v>497857</v>
+        <v>668362</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>647</v>
+        <v>713</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>648</v>
+        <v>714</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>649</v>
+        <v>715</v>
       </c>
       <c r="H17" s="7">
         <v>751</v>
       </c>
       <c r="I17" s="7">
-        <v>487455</v>
+        <v>475122</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>275</v>
+        <v>716</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>650</v>
+        <v>717</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>274</v>
+        <v>718</v>
       </c>
       <c r="M17" s="7">
         <v>1196</v>
       </c>
       <c r="N17" s="7">
-        <v>985313</v>
+        <v>1143484</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>651</v>
+        <v>719</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>652</v>
+        <v>84</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>653</v>
+        <v>720</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8209,46 +9100,46 @@
         <v>56</v>
       </c>
       <c r="D18" s="7">
-        <v>56846</v>
+        <v>53726</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>654</v>
+        <v>343</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>655</v>
+        <v>589</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>63</v>
+        <v>721</v>
       </c>
       <c r="H18" s="7">
         <v>105</v>
       </c>
       <c r="I18" s="7">
-        <v>77051</v>
+        <v>68391</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>656</v>
+        <v>278</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>568</v>
+        <v>722</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>657</v>
+        <v>723</v>
       </c>
       <c r="M18" s="7">
         <v>161</v>
       </c>
       <c r="N18" s="7">
-        <v>133897</v>
+        <v>122118</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>658</v>
+        <v>724</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>659</v>
+        <v>725</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>660</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8260,7 +9151,7 @@
         <v>662</v>
       </c>
       <c r="D19" s="7">
-        <v>720205</v>
+        <v>884225</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -8275,7 +9166,7 @@
         <v>1139</v>
       </c>
       <c r="I19" s="7">
-        <v>746119</v>
+        <v>711815</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -8290,7 +9181,7 @@
         <v>1801</v>
       </c>
       <c r="N19" s="7">
-        <v>1466324</v>
+        <v>1596040</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -8313,46 +9204,46 @@
         <v>132</v>
       </c>
       <c r="D20" s="7">
-        <v>114442</v>
+        <v>107218</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>469</v>
+        <v>726</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>661</v>
+        <v>727</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>662</v>
+        <v>728</v>
       </c>
       <c r="H20" s="7">
         <v>172</v>
       </c>
       <c r="I20" s="7">
-        <v>98620</v>
+        <v>90458</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>31</v>
+        <v>729</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>663</v>
+        <v>730</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>664</v>
+        <v>731</v>
       </c>
       <c r="M20" s="7">
         <v>304</v>
       </c>
       <c r="N20" s="7">
-        <v>213062</v>
+        <v>197676</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>666</v>
+        <v>732</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>667</v>
+        <v>378</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8364,46 +9255,46 @@
         <v>408</v>
       </c>
       <c r="D21" s="7">
-        <v>371032</v>
+        <v>346545</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>668</v>
+        <v>733</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>669</v>
+        <v>734</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>670</v>
+        <v>735</v>
       </c>
       <c r="H21" s="7">
         <v>602</v>
       </c>
       <c r="I21" s="7">
-        <v>355073</v>
+        <v>327894</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>671</v>
+        <v>736</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>672</v>
+        <v>737</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>673</v>
+        <v>738</v>
       </c>
       <c r="M21" s="7">
         <v>1010</v>
       </c>
       <c r="N21" s="7">
-        <v>726104</v>
+        <v>674439</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>674</v>
+        <v>739</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>740</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>457</v>
+        <v>741</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8415,46 +9306,46 @@
         <v>123</v>
       </c>
       <c r="D22" s="7">
-        <v>114683</v>
+        <v>107471</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>675</v>
+        <v>742</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>676</v>
+        <v>743</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>416</v>
+        <v>744</v>
       </c>
       <c r="H22" s="7">
         <v>226</v>
       </c>
       <c r="I22" s="7">
-        <v>142076</v>
+        <v>128414</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>677</v>
+        <v>745</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>678</v>
+        <v>746</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>679</v>
+        <v>493</v>
       </c>
       <c r="M22" s="7">
         <v>349</v>
       </c>
       <c r="N22" s="7">
-        <v>256759</v>
+        <v>235885</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>680</v>
+        <v>747</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>681</v>
+        <v>748</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>644</v>
+        <v>749</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8466,7 +9357,7 @@
         <v>663</v>
       </c>
       <c r="D23" s="7">
-        <v>600157</v>
+        <v>561234</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -8481,7 +9372,7 @@
         <v>1000</v>
       </c>
       <c r="I23" s="7">
-        <v>595769</v>
+        <v>546767</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -8496,7 +9387,7 @@
         <v>1663</v>
       </c>
       <c r="N23" s="7">
-        <v>1195925</v>
+        <v>1108000</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -8516,49 +9407,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>168</v>
+        <v>100</v>
       </c>
       <c r="D24" s="7">
-        <v>111986</v>
+        <v>63804</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>682</v>
+        <v>750</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>683</v>
+        <v>751</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>466</v>
+        <v>752</v>
       </c>
       <c r="H24" s="7">
-        <v>153</v>
+        <v>105</v>
       </c>
       <c r="I24" s="7">
-        <v>78680</v>
+        <v>49149</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>684</v>
+        <v>753</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>685</v>
+        <v>754</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>132</v>
+        <v>755</v>
       </c>
       <c r="M24" s="7">
-        <v>321</v>
+        <v>205</v>
       </c>
       <c r="N24" s="7">
-        <v>190666</v>
+        <v>112953</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>434</v>
+        <v>756</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>686</v>
+        <v>757</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>687</v>
+        <v>758</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8567,49 +9458,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>427</v>
+        <v>287</v>
       </c>
       <c r="D25" s="7">
-        <v>295399</v>
+        <v>184524</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>688</v>
+        <v>759</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>689</v>
+        <v>760</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>690</v>
+        <v>761</v>
       </c>
       <c r="H25" s="7">
-        <v>529</v>
+        <v>343</v>
       </c>
       <c r="I25" s="7">
-        <v>386422</v>
+        <v>367000</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>691</v>
+        <v>762</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>45</v>
+        <v>763</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>692</v>
+        <v>764</v>
       </c>
       <c r="M25" s="7">
-        <v>956</v>
+        <v>630</v>
       </c>
       <c r="N25" s="7">
-        <v>681821</v>
+        <v>551524</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>693</v>
+        <v>765</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>694</v>
+        <v>766</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>695</v>
+        <v>767</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8618,49 +9509,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>428</v>
+        <v>180</v>
       </c>
       <c r="D26" s="7">
-        <v>287472</v>
+        <v>117937</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>696</v>
+        <v>768</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>697</v>
+        <v>769</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>698</v>
+        <v>770</v>
       </c>
       <c r="H26" s="7">
-        <v>1019</v>
+        <v>376</v>
       </c>
       <c r="I26" s="7">
-        <v>555520</v>
+        <v>188313</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>699</v>
+        <v>771</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>700</v>
+        <v>772</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>701</v>
+        <v>773</v>
       </c>
       <c r="M26" s="7">
-        <v>1447</v>
+        <v>556</v>
       </c>
       <c r="N26" s="7">
-        <v>842991</v>
+        <v>306250</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>702</v>
+        <v>774</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>703</v>
+        <v>775</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>704</v>
+        <v>776</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8669,10 +9560,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>1023</v>
+        <v>567</v>
       </c>
       <c r="D27" s="7">
-        <v>694857</v>
+        <v>366266</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -8684,10 +9575,10 @@
         <v>40</v>
       </c>
       <c r="H27" s="7">
-        <v>1701</v>
+        <v>824</v>
       </c>
       <c r="I27" s="7">
-        <v>1020622</v>
+        <v>604461</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>40</v>
@@ -8699,10 +9590,10 @@
         <v>40</v>
       </c>
       <c r="M27" s="7">
-        <v>2724</v>
+        <v>1391</v>
       </c>
       <c r="N27" s="7">
-        <v>1715479</v>
+        <v>970727</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -8716,55 +9607,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>180</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>681</v>
+        <v>68</v>
       </c>
       <c r="D28" s="7">
-        <v>673039</v>
+        <v>41181</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>705</v>
+        <v>777</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>706</v>
+        <v>444</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>707</v>
+        <v>778</v>
       </c>
       <c r="H28" s="7">
-        <v>1004</v>
+        <v>48</v>
       </c>
       <c r="I28" s="7">
-        <v>713887</v>
+        <v>22586</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>708</v>
+        <v>161</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>709</v>
+        <v>779</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>710</v>
+        <v>780</v>
       </c>
       <c r="M28" s="7">
-        <v>1685</v>
+        <v>116</v>
       </c>
       <c r="N28" s="7">
-        <v>1386926</v>
+        <v>63767</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>483</v>
+        <v>781</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>711</v>
+        <v>782</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>712</v>
+        <v>783</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8773,49 +9664,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>1992</v>
+        <v>140</v>
       </c>
       <c r="D29" s="7">
-        <v>2162022</v>
+        <v>89479</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>713</v>
+        <v>784</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>714</v>
+        <v>785</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>715</v>
+        <v>786</v>
       </c>
       <c r="H29" s="7">
-        <v>2921</v>
+        <v>186</v>
       </c>
       <c r="I29" s="7">
-        <v>2249521</v>
+        <v>88739</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>716</v>
+        <v>540</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>717</v>
+        <v>787</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>718</v>
+        <v>336</v>
       </c>
       <c r="M29" s="7">
-        <v>4913</v>
+        <v>326</v>
       </c>
       <c r="N29" s="7">
-        <v>4411543</v>
+        <v>178218</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>719</v>
+        <v>788</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>720</v>
+        <v>789</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>721</v>
+        <v>790</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8824,49 +9715,49 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>691</v>
+        <v>248</v>
       </c>
       <c r="D30" s="7">
-        <v>541634</v>
+        <v>151306</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>467</v>
+        <v>791</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>722</v>
+        <v>792</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>723</v>
+        <v>793</v>
       </c>
       <c r="H30" s="7">
-        <v>1427</v>
+        <v>643</v>
       </c>
       <c r="I30" s="7">
-        <v>835953</v>
+        <v>312420</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>724</v>
+        <v>794</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>725</v>
+        <v>795</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>726</v>
+        <v>796</v>
       </c>
       <c r="M30" s="7">
-        <v>2118</v>
+        <v>891</v>
       </c>
       <c r="N30" s="7">
-        <v>1377587</v>
+        <v>463727</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>727</v>
+        <v>797</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>728</v>
+        <v>798</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>729</v>
+        <v>799</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8875,63 +9766,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>456</v>
+      </c>
+      <c r="D31" s="7">
+        <v>281966</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="7">
+        <v>877</v>
+      </c>
+      <c r="I31" s="7">
+        <v>423745</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="7">
+        <v>1333</v>
+      </c>
+      <c r="N31" s="7">
+        <v>705712</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>681</v>
+      </c>
+      <c r="D32" s="7">
+        <v>646623</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>800</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>801</v>
+      </c>
+      <c r="H32" s="7">
+        <v>1004</v>
+      </c>
+      <c r="I32" s="7">
+        <v>660463</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>802</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>803</v>
+      </c>
+      <c r="M32" s="7">
+        <v>1685</v>
+      </c>
+      <c r="N32" s="7">
+        <v>1307086</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>804</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7">
+        <v>1992</v>
+      </c>
+      <c r="D33" s="7">
+        <v>2290327</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>806</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>807</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="H33" s="7">
+        <v>2921</v>
+      </c>
+      <c r="I33" s="7">
+        <v>2237823</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>809</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="M33" s="7">
+        <v>4913</v>
+      </c>
+      <c r="N33" s="7">
+        <v>4528150</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>811</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>812</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="7">
+        <v>691</v>
+      </c>
+      <c r="D34" s="7">
+        <v>514938</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>814</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>815</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>816</v>
+      </c>
+      <c r="H34" s="7">
+        <v>1427</v>
+      </c>
+      <c r="I34" s="7">
+        <v>755508</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>817</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>816</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>818</v>
+      </c>
+      <c r="M34" s="7">
+        <v>2118</v>
+      </c>
+      <c r="N34" s="7">
+        <v>1270446</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>758</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>3364</v>
       </c>
-      <c r="D31" s="7">
-        <v>3376695</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="D35" s="7">
+        <v>3451889</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="7">
         <v>5352</v>
       </c>
-      <c r="I31" s="7">
-        <v>3799360</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="I35" s="7">
+        <v>3653794</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M35" s="7">
         <v>8716</v>
       </c>
-      <c r="N31" s="7">
-        <v>7176055</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>207</v>
+      <c r="N35" s="7">
+        <v>7105683</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
